--- a/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
+++ b/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đại học\Năm3\Nhập môn phát triển game\Super_Mario_Bros3\Super_Mario_Bros3\SpacePartioning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đại học\Năm3\Nhập môn phát triển game\Super_Mario_Bros3\Super_Mario_Bros3\SpacePartioning\Map1-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B569875F-BCEC-47C8-920F-E5FDE16FD25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3A881B-ED6B-4B33-A77D-7F0BA854A7A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB204E66-514B-4525-88A2-E8E705752E77}"/>
   </bookViews>
@@ -56,12 +56,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t># ---- MARIO---------------</t>
-  </si>
-  <si>
-    <t>-------border platform----------------------------</t>
   </si>
   <si>
     <t>-------bottom platform----------------------------</t>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>----platform type for secret room----</t>
-  </si>
-  <si>
-    <t># ---- background ---------rgb = 156 252 240</t>
   </si>
   <si>
     <t># ---- Tail ---------------</t>
@@ -157,9 +151,6 @@
     <t>state(2=Appear, 1 = Disaapear)</t>
   </si>
   <si>
-    <t>#11</t>
-  </si>
-  <si>
     <t>#venus</t>
   </si>
   <si>
@@ -199,10 +190,7 @@
     <t>#PARA KOOPA</t>
   </si>
   <si>
-    <t>object id</t>
-  </si>
-  <si>
-    <t>o</t>
+    <t>object-id</t>
   </si>
 </sst>
 </file>
@@ -219,12 +207,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,8 +239,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,115 +562,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FE060-132C-400E-8146-ED86422B7A61}">
-  <dimension ref="A1:M236"/>
+  <dimension ref="F1:M1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M243" sqref="M243:M1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="M2" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">M2:M580</f>
+      <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>2815</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2830</v>
-      </c>
-      <c r="K4">
-        <v>441</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>-34</v>
-      </c>
-      <c r="K5">
-        <v>445</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
@@ -683,13 +634,14 @@
         <v>420</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <f>L7-2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>5</v>
       </c>
@@ -709,13 +661,15 @@
         <v>419</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+        <f>L7+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <f t="shared" ref="M8:N71" si="0">L8-2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>5</v>
       </c>
@@ -735,13 +689,15 @@
         <v>417</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L9:L72" si="1">L8+1</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>5</v>
       </c>
@@ -761,13 +717,15 @@
         <v>433</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>5</v>
       </c>
@@ -787,13 +745,14 @@
         <v>433</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>5</v>
       </c>
@@ -813,13 +772,15 @@
         <v>434</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>5</v>
       </c>
@@ -839,18 +800,20 @@
         <v>433</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="H15">
         <v>418</v>
@@ -865,10 +828,12 @@
         <v>434</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+        <f t="shared" si="1"/>
         <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
@@ -891,15 +856,16 @@
         <v>177</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
         <v>11</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
@@ -922,10 +888,11 @@
         <v>210</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
         <v>12</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
@@ -948,15 +915,17 @@
         <v>193</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+        <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
@@ -979,10 +948,11 @@
         <v>354</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
         <v>14</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
@@ -1011,10 +981,11 @@
         <v>417</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
         <v>15</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
@@ -1037,11 +1008,12 @@
         <v>401</v>
       </c>
       <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f>M24+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.25">
@@ -1064,11 +1036,12 @@
         <v>385</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ref="M26:O55" si="0">M25+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
@@ -1091,245 +1064,253 @@
         <v>417</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1682</v>
+      </c>
+      <c r="H28">
+        <v>386</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1697</v>
+      </c>
+      <c r="K28">
+        <v>417</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>1697</v>
+      </c>
+      <c r="H29">
+        <v>401</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1713</v>
+      </c>
+      <c r="K29">
+        <v>417</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <v>1682</v>
-      </c>
-      <c r="H28">
+    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>1796</v>
+      </c>
+      <c r="H32">
         <v>386</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1697</v>
-      </c>
-      <c r="K28">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1824</v>
+      </c>
+      <c r="K32">
         <v>417</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>1697</v>
-      </c>
-      <c r="H29">
-        <v>401</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1713</v>
-      </c>
-      <c r="K29">
-        <v>417</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>1860</v>
+      </c>
+      <c r="H33">
+        <v>370</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1888</v>
+      </c>
+      <c r="K33">
+        <v>418</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M33" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>1796</v>
-      </c>
-      <c r="H32">
-        <v>386</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1824</v>
-      </c>
-      <c r="K32">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>2259</v>
+      </c>
+      <c r="H36">
+        <v>114</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2289</v>
+      </c>
+      <c r="K36">
+        <v>321</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>2258</v>
+      </c>
+      <c r="H37">
+        <v>370</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2288</v>
+      </c>
+      <c r="K37">
         <v>417</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>1860</v>
-      </c>
-      <c r="H33">
-        <v>370</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1888</v>
-      </c>
-      <c r="K33">
-        <v>418</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>2259</v>
-      </c>
-      <c r="H36">
-        <v>114</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>2289</v>
-      </c>
-      <c r="K36">
-        <v>321</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>2323</v>
+      </c>
+      <c r="H39">
+        <v>385</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2352</v>
+      </c>
+      <c r="K39">
+        <v>417</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>2258</v>
-      </c>
-      <c r="H37">
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>241</v>
+      </c>
+      <c r="H42">
         <v>370</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>2288</v>
-      </c>
-      <c r="K37">
-        <v>417</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>287</v>
+      </c>
+      <c r="K42">
+        <v>369</v>
+      </c>
+      <c r="L42">
+        <v>26</v>
+      </c>
+      <c r="M42" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>2323</v>
-      </c>
-      <c r="H39">
-        <v>385</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>2352</v>
-      </c>
-      <c r="K39">
-        <v>417</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>241</v>
-      </c>
-      <c r="H42">
-        <v>370</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>287</v>
-      </c>
-      <c r="K42">
-        <v>369</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>26</v>
-      </c>
-    </row>
     <row r="43" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>5</v>
@@ -1350,367 +1331,381 @@
         <v>340</v>
       </c>
       <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>401</v>
+      </c>
+      <c r="H44">
+        <v>370</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>480</v>
+      </c>
+      <c r="K44">
+        <v>371</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>465</v>
+      </c>
+      <c r="H45">
+        <v>338</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>528</v>
+      </c>
+      <c r="K45">
+        <v>339</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="M45" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <v>401</v>
-      </c>
-      <c r="H44">
-        <v>370</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>480</v>
-      </c>
-      <c r="K44">
-        <v>371</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44">
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>513</v>
+      </c>
+      <c r="H46">
+        <v>306</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>576</v>
+      </c>
+      <c r="K46">
+        <v>307</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M46" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45">
-        <v>465</v>
-      </c>
-      <c r="H45">
-        <v>338</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>528</v>
-      </c>
-      <c r="K45">
-        <v>339</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>513</v>
+      </c>
+      <c r="H47">
+        <v>386</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>605</v>
+      </c>
+      <c r="K47">
+        <v>387</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M47" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <v>513</v>
-      </c>
-      <c r="H46">
-        <v>306</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>576</v>
-      </c>
-      <c r="K46">
-        <v>307</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>1266</v>
+      </c>
+      <c r="H48">
+        <v>386</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1377</v>
+      </c>
+      <c r="K48">
+        <v>387</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M48" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <v>513</v>
-      </c>
-      <c r="H47">
-        <v>386</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>605</v>
-      </c>
-      <c r="K47">
-        <v>387</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="M47">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>1297</v>
+      </c>
+      <c r="H49">
+        <v>354</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1408</v>
+      </c>
+      <c r="K49">
+        <v>355</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="M49" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48">
-        <v>1266</v>
-      </c>
-      <c r="H48">
-        <v>386</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1377</v>
-      </c>
-      <c r="K48">
-        <v>387</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="M48">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>1329</v>
+      </c>
+      <c r="H50">
+        <v>322</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1440</v>
+      </c>
+      <c r="K50">
+        <v>323</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M50" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49">
-        <v>1297</v>
-      </c>
-      <c r="H49">
-        <v>354</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1408</v>
-      </c>
-      <c r="K49">
-        <v>355</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>2145</v>
+      </c>
+      <c r="H51">
+        <v>370</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2193</v>
+      </c>
+      <c r="K51">
+        <v>371</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M51" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <v>1329</v>
-      </c>
-      <c r="H50">
-        <v>322</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1440</v>
-      </c>
-      <c r="K50">
-        <v>323</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>2177</v>
+      </c>
+      <c r="H52">
+        <v>274</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2224</v>
+      </c>
+      <c r="K52">
+        <v>275</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M52" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>2145</v>
-      </c>
-      <c r="H51">
-        <v>370</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>2193</v>
-      </c>
-      <c r="K51">
-        <v>371</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>512</v>
+      </c>
+      <c r="H54">
+        <v>373</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>514</v>
+      </c>
+      <c r="K54">
+        <v>383</v>
+      </c>
+      <c r="L54">
+        <v>37</v>
+      </c>
+      <c r="M54" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <v>2177</v>
-      </c>
-      <c r="H52">
-        <v>274</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>2224</v>
-      </c>
-      <c r="K52">
-        <v>275</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>607</v>
+      </c>
+      <c r="H55">
+        <v>373</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>608</v>
+      </c>
+      <c r="K55">
+        <v>383</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M55" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54">
-        <v>512</v>
-      </c>
-      <c r="H54">
-        <v>373</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>514</v>
-      </c>
-      <c r="K54">
-        <v>383</v>
-      </c>
-      <c r="L54">
-        <v>3</v>
-      </c>
-      <c r="M54">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>2085</v>
+      </c>
+      <c r="H57">
+        <v>380</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2086</v>
+      </c>
+      <c r="K57">
+        <v>387</v>
+      </c>
+      <c r="L57">
+        <v>39</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>607</v>
-      </c>
-      <c r="H55">
-        <v>373</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>608</v>
-      </c>
-      <c r="K55">
-        <v>383</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>2125</v>
+      </c>
+      <c r="H58">
+        <v>380</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2126</v>
+      </c>
+      <c r="K58">
+        <v>387</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M58" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>2085</v>
-      </c>
-      <c r="H57">
-        <v>380</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>2086</v>
-      </c>
-      <c r="K57">
-        <v>387</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <v>2125</v>
-      </c>
-      <c r="H58">
-        <v>380</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>2126</v>
-      </c>
-      <c r="K58">
-        <v>387</v>
-      </c>
-      <c r="L58">
-        <v>3</v>
-      </c>
-      <c r="M58">
-        <f>M57+1</f>
-        <v>40</v>
-      </c>
-    </row>
     <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>5</v>
@@ -1731,15 +1726,16 @@
         <v>400</v>
       </c>
       <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
         <v>41</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="6:13" x14ac:dyDescent="0.25">
@@ -1762,10 +1758,11 @@
         <v>657</v>
       </c>
       <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
         <v>42</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="6:13" x14ac:dyDescent="0.25">
@@ -1788,10 +1785,12 @@
         <v>659</v>
       </c>
       <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
+        <f t="shared" si="1"/>
         <v>43</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="6:13" x14ac:dyDescent="0.25">
@@ -1814,10 +1813,11 @@
         <v>689</v>
       </c>
       <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
         <v>44</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="6:13" x14ac:dyDescent="0.25">
@@ -1840,11 +1840,12 @@
         <v>640</v>
       </c>
       <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <f>M66+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="6:13" x14ac:dyDescent="0.25">
@@ -1867,11 +1868,12 @@
         <v>640</v>
       </c>
       <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <f>M67+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="6:13" x14ac:dyDescent="0.25">
@@ -1894,11 +1896,12 @@
         <v>640</v>
       </c>
       <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <f>M68+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="6:13" x14ac:dyDescent="0.25">
@@ -1921,11 +1924,12 @@
         <v>640</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <f>M69+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="6:13" x14ac:dyDescent="0.25">
@@ -1948,11 +1952,12 @@
         <v>640</v>
       </c>
       <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <f>M70+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="6:13" x14ac:dyDescent="0.25">
@@ -1975,11 +1980,12 @@
         <v>528</v>
       </c>
       <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <f>M71+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" ref="M72:N135" si="2">L72-2</f>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="6:13" x14ac:dyDescent="0.25">
@@ -2002,11 +2008,12 @@
         <v>557</v>
       </c>
       <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <f>M72+1</f>
+        <f t="shared" ref="L73:L136" si="3">L72+1</f>
         <v>51</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="6:13" x14ac:dyDescent="0.25">
@@ -2029,10 +2036,11 @@
         <v>536</v>
       </c>
       <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
         <v>52</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="6:13" x14ac:dyDescent="0.25">
@@ -2055,16 +2063,17 @@
         <v>511</v>
       </c>
       <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <f>M75+1</f>
+        <f t="shared" si="3"/>
         <v>53</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="6:13" x14ac:dyDescent="0.25">
@@ -2087,15 +2096,16 @@
         <v>530</v>
       </c>
       <c r="L79">
-        <v>5</v>
-      </c>
-      <c r="M79">
         <v>54</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="6:13" x14ac:dyDescent="0.25">
@@ -2118,40 +2128,16 @@
         <v>127</v>
       </c>
       <c r="L82">
-        <v>4</v>
-      </c>
-      <c r="M82">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>56</v>
+      <c r="M82" s="1">
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="6:13" x14ac:dyDescent="0.25">
@@ -2167,13 +2153,17 @@
       <c r="I88">
         <v>2</v>
       </c>
-      <c r="M88">
-        <v>57</v>
+      <c r="L88">
+        <v>56</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="6:13" x14ac:dyDescent="0.25">
@@ -2189,8 +2179,12 @@
       <c r="I93">
         <v>7</v>
       </c>
-      <c r="M93">
-        <v>58</v>
+      <c r="L93">
+        <v>57</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="6:13" x14ac:dyDescent="0.25">
@@ -2206,43 +2200,47 @@
       <c r="I94">
         <v>7</v>
       </c>
-      <c r="M94">
-        <f>M93+1</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <v>7</v>
-      </c>
-      <c r="G95">
-        <v>2700</v>
-      </c>
-      <c r="H95">
-        <v>300</v>
-      </c>
-      <c r="I95">
-        <v>7</v>
-      </c>
-      <c r="M95">
-        <f>M94+1</f>
-        <v>60</v>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>16</v>
       </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="98" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98">
-        <v>61</v>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>177</v>
+      </c>
+      <c r="H98">
+        <v>353</v>
+      </c>
+      <c r="I98">
+        <v>22</v>
+      </c>
+      <c r="L98">
+        <v>59</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="6:13" x14ac:dyDescent="0.25">
@@ -2250,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="H99">
         <v>353</v>
@@ -2258,9 +2256,13 @@
       <c r="I99">
         <v>22</v>
       </c>
-      <c r="M99">
-        <f>M98+1</f>
-        <v>62</v>
+      <c r="L99">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="6:13" x14ac:dyDescent="0.25">
@@ -2268,17 +2270,21 @@
         <v>10</v>
       </c>
       <c r="G100">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="H100">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="I100">
         <v>22</v>
       </c>
-      <c r="M100">
-        <f>M99+1</f>
-        <v>63</v>
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="6:13" x14ac:dyDescent="0.25">
@@ -2286,17 +2292,21 @@
         <v>10</v>
       </c>
       <c r="G101">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="H101">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="I101">
         <v>22</v>
       </c>
-      <c r="M101">
-        <f>M100+1</f>
-        <v>64</v>
+      <c r="L101">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="6:13" x14ac:dyDescent="0.25">
@@ -2304,40 +2314,50 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>417</v>
+        <v>705</v>
       </c>
       <c r="H102">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="I102">
         <v>22</v>
       </c>
-      <c r="M102">
-        <f>M101+1</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F103">
-        <v>10</v>
-      </c>
-      <c r="G103">
-        <v>705</v>
-      </c>
-      <c r="H103">
-        <v>353</v>
-      </c>
-      <c r="I103">
-        <v>22</v>
-      </c>
-      <c r="M103">
-        <f>M102+1</f>
-        <v>66</v>
+      <c r="L102">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
-        <v>19</v>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>1474</v>
+      </c>
+      <c r="H105">
+        <v>369</v>
+      </c>
+      <c r="I105">
+        <v>9</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>64</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="6:13" x14ac:dyDescent="0.25">
@@ -2345,10 +2365,10 @@
         <v>11</v>
       </c>
       <c r="G106">
-        <v>1474</v>
+        <v>658</v>
       </c>
       <c r="H106">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I106">
         <v>9</v>
@@ -2356,8 +2376,13 @@
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="M106">
-        <v>67</v>
+      <c r="L106">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="6:13" x14ac:dyDescent="0.25">
@@ -2365,10 +2390,10 @@
         <v>11</v>
       </c>
       <c r="G107">
-        <v>658</v>
+        <v>241</v>
       </c>
       <c r="H107">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="I107">
         <v>9</v>
@@ -2376,35 +2401,39 @@
       <c r="J107">
         <v>1</v>
       </c>
-      <c r="M107">
-        <f>M106+1</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F108">
-        <v>11</v>
-      </c>
-      <c r="G108">
-        <v>241</v>
-      </c>
-      <c r="H108">
-        <v>304</v>
-      </c>
-      <c r="I108">
-        <v>9</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <f>M107+1</f>
-        <v>69</v>
+      <c r="L107">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F110" t="s">
-        <v>20</v>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>657</v>
+      </c>
+      <c r="H110">
+        <v>386</v>
+      </c>
+      <c r="I110">
+        <v>22</v>
+      </c>
+      <c r="L110">
+        <v>67</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="6:13" x14ac:dyDescent="0.25">
@@ -2412,16 +2441,21 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <v>657</v>
+        <v>1474</v>
       </c>
       <c r="H111">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I111">
         <v>22</v>
       </c>
-      <c r="M111">
-        <v>70</v>
+      <c r="L111">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="6:13" x14ac:dyDescent="0.25">
@@ -2429,40 +2463,50 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <v>1474</v>
+        <v>241</v>
       </c>
       <c r="H112">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="I112">
         <v>22</v>
       </c>
-      <c r="M112">
-        <f>M111+1</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F113">
-        <v>10</v>
-      </c>
-      <c r="G113">
-        <v>241</v>
-      </c>
-      <c r="H113">
-        <v>305</v>
-      </c>
-      <c r="I113">
-        <v>22</v>
-      </c>
-      <c r="M113">
-        <f>M112+1</f>
-        <v>72</v>
+      <c r="L112">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F115" t="s">
-        <v>21</v>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>177</v>
+      </c>
+      <c r="H115">
+        <v>353</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>70</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="6:13" x14ac:dyDescent="0.25">
@@ -2470,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="G116">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="H116">
         <v>353</v>
@@ -2481,8 +2525,13 @@
       <c r="J116">
         <v>1</v>
       </c>
-      <c r="M116">
-        <v>73</v>
+      <c r="L116">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="6:13" x14ac:dyDescent="0.25">
@@ -2490,10 +2539,10 @@
         <v>6</v>
       </c>
       <c r="G117">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="H117">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="I117">
         <v>5</v>
@@ -2501,9 +2550,13 @@
       <c r="J117">
         <v>1</v>
       </c>
-      <c r="M117">
-        <f>M116+1</f>
-        <v>74</v>
+      <c r="L117">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="6:13" x14ac:dyDescent="0.25">
@@ -2511,10 +2564,10 @@
         <v>6</v>
       </c>
       <c r="G118">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="H118">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="I118">
         <v>5</v>
@@ -2522,9 +2575,13 @@
       <c r="J118">
         <v>1</v>
       </c>
-      <c r="M118">
-        <f>M117+1</f>
-        <v>75</v>
+      <c r="L118">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="6:13" x14ac:dyDescent="0.25">
@@ -2532,10 +2589,10 @@
         <v>6</v>
       </c>
       <c r="G119">
-        <v>417</v>
+        <v>705</v>
       </c>
       <c r="H119">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="I119">
         <v>5</v>
@@ -2543,38 +2600,45 @@
       <c r="J119">
         <v>1</v>
       </c>
-      <c r="M119">
-        <f>M118+1</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="120" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F120">
-        <v>6</v>
-      </c>
-      <c r="G120">
-        <v>705</v>
-      </c>
-      <c r="H120">
-        <v>353</v>
-      </c>
-      <c r="I120">
-        <v>5</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <f>M119+1</f>
-        <v>77</v>
+      <c r="L119">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>22</v>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>1953</v>
+      </c>
+      <c r="H125">
+        <v>403</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>75</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="6:13" x14ac:dyDescent="0.25">
@@ -2582,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="G126">
-        <v>1953</v>
+        <v>1969</v>
       </c>
       <c r="H126">
         <v>403</v>
@@ -2593,8 +2657,13 @@
       <c r="J126">
         <v>1</v>
       </c>
-      <c r="M126">
-        <v>78</v>
+      <c r="L126">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="6:13" x14ac:dyDescent="0.25">
@@ -2602,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="G127">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="H127">
         <v>403</v>
@@ -2613,8 +2682,13 @@
       <c r="J127">
         <v>1</v>
       </c>
-      <c r="M127">
-        <v>79</v>
+      <c r="L127">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="6:13" x14ac:dyDescent="0.25">
@@ -2622,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="G128">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="H128">
         <v>403</v>
@@ -2633,9 +2707,13 @@
       <c r="J128">
         <v>1</v>
       </c>
-      <c r="M128">
-        <f>M127+1</f>
-        <v>80</v>
+      <c r="L128">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="6:13" x14ac:dyDescent="0.25">
@@ -2643,7 +2721,7 @@
         <v>9</v>
       </c>
       <c r="G129">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="H129">
         <v>403</v>
@@ -2654,9 +2732,13 @@
       <c r="J129">
         <v>1</v>
       </c>
-      <c r="M129">
-        <f>M128+1</f>
-        <v>81</v>
+      <c r="L129">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="6:13" x14ac:dyDescent="0.25">
@@ -2664,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="G130">
-        <v>2017</v>
+        <v>2033</v>
       </c>
       <c r="H130">
         <v>403</v>
@@ -2675,9 +2757,13 @@
       <c r="J130">
         <v>1</v>
       </c>
-      <c r="M130">
-        <f>M129+1</f>
-        <v>82</v>
+      <c r="L130">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="6:13" x14ac:dyDescent="0.25">
@@ -2685,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="G131">
-        <v>2033</v>
+        <v>2049</v>
       </c>
       <c r="H131">
         <v>403</v>
@@ -2696,9 +2782,13 @@
       <c r="J131">
         <v>1</v>
       </c>
-      <c r="M131">
-        <f>M130+1</f>
-        <v>83</v>
+      <c r="L131">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="6:13" x14ac:dyDescent="0.25">
@@ -2706,10 +2796,10 @@
         <v>9</v>
       </c>
       <c r="G132">
-        <v>2049</v>
+        <v>1969</v>
       </c>
       <c r="H132">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I132">
         <v>8</v>
@@ -2717,9 +2807,13 @@
       <c r="J132">
         <v>1</v>
       </c>
-      <c r="M132">
-        <f>M131+1</f>
-        <v>84</v>
+      <c r="L132">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="6:13" x14ac:dyDescent="0.25">
@@ -2727,7 +2821,7 @@
         <v>9</v>
       </c>
       <c r="G133">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="H133">
         <v>387</v>
@@ -2738,9 +2832,13 @@
       <c r="J133">
         <v>1</v>
       </c>
-      <c r="M133">
-        <f>M132+1</f>
-        <v>85</v>
+      <c r="L133">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="6:13" x14ac:dyDescent="0.25">
@@ -2748,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="G134">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="H134">
         <v>387</v>
@@ -2759,9 +2857,13 @@
       <c r="J134">
         <v>1</v>
       </c>
-      <c r="M134">
-        <f>M133+1</f>
-        <v>86</v>
+      <c r="L134">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="6:13" x14ac:dyDescent="0.25">
@@ -2769,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="G135">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="H135">
         <v>387</v>
@@ -2780,9 +2882,13 @@
       <c r="J135">
         <v>1</v>
       </c>
-      <c r="M135">
-        <f>M134+1</f>
-        <v>87</v>
+      <c r="L135">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="6:13" x14ac:dyDescent="0.25">
@@ -2790,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="G136">
-        <v>2017</v>
+        <v>2033</v>
       </c>
       <c r="H136">
         <v>387</v>
@@ -2801,9 +2907,13 @@
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="M136">
-        <f>M135+1</f>
-        <v>88</v>
+      <c r="L136">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" ref="M136:N190" si="4">L136-2</f>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="6:13" x14ac:dyDescent="0.25">
@@ -2811,10 +2921,10 @@
         <v>9</v>
       </c>
       <c r="G137">
-        <v>2033</v>
+        <v>1985</v>
       </c>
       <c r="H137">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I137">
         <v>8</v>
@@ -2822,9 +2932,13 @@
       <c r="J137">
         <v>1</v>
       </c>
-      <c r="M137">
-        <f>M136+1</f>
-        <v>89</v>
+      <c r="L137">
+        <f t="shared" ref="L137:L199" si="5">L136+1</f>
+        <v>87</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="6:13" x14ac:dyDescent="0.25">
@@ -2832,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="G138">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="H138">
         <v>371</v>
@@ -2843,9 +2957,13 @@
       <c r="J138">
         <v>1</v>
       </c>
-      <c r="M138">
-        <f>M137+1</f>
-        <v>90</v>
+      <c r="L138">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="6:13" x14ac:dyDescent="0.25">
@@ -2853,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="G139">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="H139">
         <v>371</v>
@@ -2864,9 +2982,13 @@
       <c r="J139">
         <v>1</v>
       </c>
-      <c r="M139">
-        <f>M138+1</f>
-        <v>91</v>
+      <c r="L139">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="6:13" x14ac:dyDescent="0.25">
@@ -2874,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="G140">
-        <v>2017</v>
+        <v>2033</v>
       </c>
       <c r="H140">
         <v>371</v>
@@ -2883,32 +3005,39 @@
         <v>8</v>
       </c>
       <c r="J140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <f>M139+1</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="141" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F142">
         <v>9</v>
       </c>
-      <c r="G141">
-        <v>2033</v>
-      </c>
-      <c r="H141">
-        <v>371</v>
-      </c>
-      <c r="I141">
+      <c r="G142">
+        <v>2097</v>
+      </c>
+      <c r="H142">
+        <v>403</v>
+      </c>
+      <c r="I142">
         <v>8</v>
       </c>
-      <c r="J141">
-        <v>2</v>
-      </c>
-      <c r="M141">
-        <f>M140+1</f>
-        <v>93</v>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>91</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="6:13" x14ac:dyDescent="0.25">
@@ -2916,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="G143">
-        <v>2097</v>
+        <v>2113</v>
       </c>
       <c r="H143">
         <v>403</v>
@@ -2927,8 +3056,13 @@
       <c r="J143">
         <v>1</v>
       </c>
-      <c r="M143">
-        <v>94</v>
+      <c r="L143">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="6:13" x14ac:dyDescent="0.25">
@@ -2936,10 +3070,10 @@
         <v>9</v>
       </c>
       <c r="G144">
-        <v>2113</v>
+        <v>2097</v>
       </c>
       <c r="H144">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I144">
         <v>8</v>
@@ -2947,45 +3081,52 @@
       <c r="J144">
         <v>1</v>
       </c>
-      <c r="M144">
-        <f>M143+1</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="145" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F145">
-        <v>9</v>
-      </c>
-      <c r="G145">
-        <v>2097</v>
-      </c>
-      <c r="H145">
-        <v>387</v>
-      </c>
-      <c r="I145">
-        <v>8</v>
-      </c>
-      <c r="J145">
-        <v>1</v>
-      </c>
-      <c r="M145">
-        <f>M144+1</f>
-        <v>96</v>
+      <c r="L144">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F148" t="s">
-        <v>24</v>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>1441</v>
+      </c>
+      <c r="H148">
+        <v>129</v>
+      </c>
+      <c r="I148">
+        <v>9</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>94</v>
+      </c>
+      <c r="M148" s="1">
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>1441</v>
@@ -2994,39 +3135,47 @@
         <v>129</v>
       </c>
       <c r="I149">
-        <v>9</v>
+        <v>2323</v>
       </c>
       <c r="J149">
         <v>3</v>
       </c>
-      <c r="M149">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="150" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F150">
-        <v>10</v>
-      </c>
-      <c r="G150">
-        <v>1441</v>
-      </c>
-      <c r="H150">
-        <v>129</v>
-      </c>
-      <c r="I150">
-        <v>2323</v>
-      </c>
-      <c r="J150">
+      <c r="L149">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>200</v>
+      </c>
+      <c r="H152">
+        <v>350</v>
+      </c>
+      <c r="I152">
         <v>3</v>
       </c>
-      <c r="M150">
-        <f>M149+1</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F152" t="s">
-        <v>25</v>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>96</v>
+      </c>
+      <c r="M152" s="1">
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="6:13" x14ac:dyDescent="0.25">
@@ -3034,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="H153">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I153">
         <v>3</v>
@@ -3045,29 +3194,37 @@
       <c r="J153">
         <v>1</v>
       </c>
-      <c r="M153">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F154">
+      <c r="L153">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="M153" s="1">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F155">
         <v>2</v>
       </c>
-      <c r="G154">
-        <v>480</v>
-      </c>
-      <c r="H154">
-        <v>400</v>
-      </c>
-      <c r="I154">
+      <c r="G155">
+        <v>900</v>
+      </c>
+      <c r="H155">
+        <v>300</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="J154">
-        <v>1</v>
-      </c>
-      <c r="M154">
-        <f>M153+1</f>
-        <v>100</v>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>98</v>
+      </c>
+      <c r="M155" s="1">
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="6:13" x14ac:dyDescent="0.25">
@@ -3075,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="G156">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H156">
         <v>300</v>
@@ -3086,76 +3243,88 @@
       <c r="J156">
         <v>1</v>
       </c>
-      <c r="M156">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F157">
+      <c r="L156">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="M156" s="1">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="158" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F159">
         <v>2</v>
       </c>
-      <c r="G157">
-        <v>800</v>
-      </c>
-      <c r="H157">
+      <c r="G159">
+        <v>1000</v>
+      </c>
+      <c r="H159">
         <v>300</v>
       </c>
-      <c r="I157">
-        <v>3</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
-      </c>
-      <c r="M157">
-        <f>M156+1</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F159" t="s">
-        <v>26</v>
+      <c r="I159">
+        <v>30</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>100</v>
+      </c>
+      <c r="M159" s="1">
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F160">
-        <v>2</v>
-      </c>
-      <c r="G160">
-        <v>1000</v>
-      </c>
-      <c r="H160">
-        <v>300</v>
-      </c>
-      <c r="I160">
-        <v>30</v>
-      </c>
-      <c r="J160">
-        <v>2</v>
-      </c>
-      <c r="M160">
-        <v>103</v>
+      <c r="F160" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s">
         <v>27</v>
       </c>
+      <c r="H161" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="162" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>29</v>
-      </c>
-      <c r="H162" t="s">
-        <v>30</v>
-      </c>
-      <c r="I162" t="s">
-        <v>31</v>
-      </c>
-      <c r="K162" t="s">
-        <v>32</v>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162">
+        <v>1073</v>
+      </c>
+      <c r="H162">
+        <v>320</v>
+      </c>
+      <c r="I162">
+        <v>5</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>101</v>
+      </c>
+      <c r="M162" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="6:13" x14ac:dyDescent="0.25">
@@ -3163,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="G163">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="H163">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="I163">
         <v>5</v>
@@ -3174,8 +3343,13 @@
       <c r="J163">
         <v>2</v>
       </c>
-      <c r="M163">
-        <v>104</v>
+      <c r="L163">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="M163" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="6:13" x14ac:dyDescent="0.25">
@@ -3183,10 +3357,10 @@
         <v>6</v>
       </c>
       <c r="G164">
-        <v>1105</v>
+        <v>1138</v>
       </c>
       <c r="H164">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="I164">
         <v>5</v>
@@ -3194,30 +3368,37 @@
       <c r="J164">
         <v>2</v>
       </c>
-      <c r="M164">
-        <f>M163+1</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F165">
+      <c r="L164">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="M164" s="1">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="166" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F166">
         <v>6</v>
       </c>
-      <c r="G165">
-        <v>1138</v>
-      </c>
-      <c r="H165">
-        <v>256</v>
-      </c>
-      <c r="I165">
-        <v>5</v>
-      </c>
-      <c r="J165">
+      <c r="G166">
+        <v>1170</v>
+      </c>
+      <c r="H166">
+        <v>224</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
         <v>2</v>
       </c>
-      <c r="M165">
-        <f>M164+1</f>
-        <v>106</v>
+      <c r="L166">
+        <v>104</v>
+      </c>
+      <c r="M166" s="1">
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="6:13" x14ac:dyDescent="0.25">
@@ -3225,10 +3406,10 @@
         <v>6</v>
       </c>
       <c r="G167">
-        <v>1170</v>
+        <v>1201</v>
       </c>
       <c r="H167">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="I167">
         <v>5</v>
@@ -3236,29 +3417,37 @@
       <c r="J167">
         <v>2</v>
       </c>
-      <c r="M167">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F168">
+      <c r="L167">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="M167" s="1">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F169">
         <v>6</v>
       </c>
-      <c r="G168">
-        <v>1201</v>
-      </c>
-      <c r="H168">
-        <v>192</v>
-      </c>
-      <c r="I168">
-        <v>5</v>
-      </c>
-      <c r="J168">
+      <c r="G169">
+        <v>1329</v>
+      </c>
+      <c r="H169">
+        <v>81</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
         <v>2</v>
       </c>
-      <c r="M168">
-        <f>M167+1</f>
-        <v>108</v>
+      <c r="L169">
+        <v>106</v>
+      </c>
+      <c r="M169" s="1">
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="6:13" x14ac:dyDescent="0.25">
@@ -3266,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="G170">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="H170">
         <v>81</v>
@@ -3277,8 +3466,13 @@
       <c r="J170">
         <v>2</v>
       </c>
-      <c r="M170">
-        <v>109</v>
+      <c r="L170">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="M170" s="1">
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="6:13" x14ac:dyDescent="0.25">
@@ -3286,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="G171">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="H171">
         <v>81</v>
@@ -3297,30 +3491,37 @@
       <c r="J171">
         <v>2</v>
       </c>
-      <c r="M171">
-        <f>M170+1</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F172">
+      <c r="L171">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="M171" s="1">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F173">
         <v>6</v>
       </c>
-      <c r="G172">
-        <v>1362</v>
-      </c>
-      <c r="H172">
-        <v>81</v>
-      </c>
-      <c r="I172">
-        <v>5</v>
-      </c>
-      <c r="J172">
+      <c r="G173">
+        <v>1473</v>
+      </c>
+      <c r="H173">
+        <v>112</v>
+      </c>
+      <c r="I173">
+        <v>5</v>
+      </c>
+      <c r="J173">
         <v>2</v>
       </c>
-      <c r="M172">
-        <f>M171+1</f>
-        <v>111</v>
+      <c r="L173">
+        <v>109</v>
+      </c>
+      <c r="M173" s="1">
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="6:13" x14ac:dyDescent="0.25">
@@ -3328,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="G174">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="H174">
         <v>112</v>
@@ -3339,29 +3540,37 @@
       <c r="J174">
         <v>2</v>
       </c>
-      <c r="M174">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F175">
+      <c r="L174">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="M174" s="1">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F176">
         <v>6</v>
       </c>
-      <c r="G175">
-        <v>1489</v>
-      </c>
-      <c r="H175">
-        <v>112</v>
-      </c>
-      <c r="I175">
-        <v>5</v>
-      </c>
-      <c r="J175">
+      <c r="G176">
+        <v>1537</v>
+      </c>
+      <c r="H176">
+        <v>128</v>
+      </c>
+      <c r="I176">
+        <v>5</v>
+      </c>
+      <c r="J176">
         <v>2</v>
       </c>
-      <c r="M175">
-        <f>M174+1</f>
-        <v>113</v>
+      <c r="L176">
+        <v>111</v>
+      </c>
+      <c r="M176" s="1">
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="6:13" x14ac:dyDescent="0.25">
@@ -3369,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="G177">
-        <v>1537</v>
+        <v>1553</v>
       </c>
       <c r="H177">
         <v>128</v>
@@ -3380,8 +3589,13 @@
       <c r="J177">
         <v>2</v>
       </c>
-      <c r="M177">
-        <v>114</v>
+      <c r="L177">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="M177" s="1">
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="6:13" x14ac:dyDescent="0.25">
@@ -3389,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="G178">
-        <v>1553</v>
+        <v>1569</v>
       </c>
       <c r="H178">
         <v>128</v>
@@ -3400,9 +3614,13 @@
       <c r="J178">
         <v>2</v>
       </c>
-      <c r="M178">
-        <f>M177+1</f>
-        <v>115</v>
+      <c r="L178">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="M178" s="1">
+        <f t="shared" si="4"/>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="6:13" x14ac:dyDescent="0.25">
@@ -3410,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="G179">
-        <v>1569</v>
+        <v>1585</v>
       </c>
       <c r="H179">
         <v>128</v>
@@ -3421,30 +3639,37 @@
       <c r="J179">
         <v>2</v>
       </c>
-      <c r="M179">
-        <f>M178+1</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="180" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F180">
+      <c r="L179">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="M179" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F181">
         <v>6</v>
       </c>
-      <c r="G180">
-        <v>1585</v>
-      </c>
-      <c r="H180">
-        <v>128</v>
-      </c>
-      <c r="I180">
-        <v>5</v>
-      </c>
-      <c r="J180">
+      <c r="G181">
+        <v>1617</v>
+      </c>
+      <c r="H181">
+        <v>112</v>
+      </c>
+      <c r="I181">
+        <v>5</v>
+      </c>
+      <c r="J181">
         <v>2</v>
       </c>
-      <c r="M180">
-        <f>M179+1</f>
-        <v>117</v>
+      <c r="L181">
+        <v>115</v>
+      </c>
+      <c r="M181" s="1">
+        <f t="shared" si="4"/>
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="6:13" x14ac:dyDescent="0.25">
@@ -3452,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="G182">
-        <v>1617</v>
+        <v>1633</v>
       </c>
       <c r="H182">
         <v>112</v>
@@ -3463,8 +3688,13 @@
       <c r="J182">
         <v>2</v>
       </c>
-      <c r="M182">
-        <v>118</v>
+      <c r="L182">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="M182" s="1">
+        <f t="shared" si="4"/>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="6:13" x14ac:dyDescent="0.25">
@@ -3472,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="G183">
-        <v>1633</v>
+        <v>1649</v>
       </c>
       <c r="H183">
         <v>112</v>
@@ -3483,9 +3713,13 @@
       <c r="J183">
         <v>2</v>
       </c>
-      <c r="M183">
-        <f>M182+1</f>
-        <v>119</v>
+      <c r="L183">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="M183" s="1">
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="6:13" x14ac:dyDescent="0.25">
@@ -3493,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="G184">
-        <v>1649</v>
+        <v>1665</v>
       </c>
       <c r="H184">
         <v>112</v>
@@ -3504,30 +3738,37 @@
       <c r="J184">
         <v>2</v>
       </c>
-      <c r="M184">
-        <f>M183+1</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="185" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F185">
+      <c r="L184">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="M184" s="1">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F186">
         <v>6</v>
       </c>
-      <c r="G185">
-        <v>1665</v>
-      </c>
-      <c r="H185">
-        <v>112</v>
-      </c>
-      <c r="I185">
-        <v>5</v>
-      </c>
-      <c r="J185">
+      <c r="G186">
+        <v>1697</v>
+      </c>
+      <c r="H186">
+        <v>145</v>
+      </c>
+      <c r="I186">
+        <v>5</v>
+      </c>
+      <c r="J186">
         <v>2</v>
       </c>
-      <c r="M185">
-        <f>M184+1</f>
-        <v>121</v>
+      <c r="L186">
+        <v>119</v>
+      </c>
+      <c r="M186" s="1">
+        <f t="shared" si="4"/>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="6:13" x14ac:dyDescent="0.25">
@@ -3535,10 +3776,10 @@
         <v>6</v>
       </c>
       <c r="G187">
-        <v>1697</v>
+        <v>1729</v>
       </c>
       <c r="H187">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="I187">
         <v>5</v>
@@ -3546,8 +3787,13 @@
       <c r="J187">
         <v>2</v>
       </c>
-      <c r="M187">
-        <v>122</v>
+      <c r="L187">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="M187" s="1">
+        <f t="shared" si="4"/>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="6:13" x14ac:dyDescent="0.25">
@@ -3555,10 +3801,10 @@
         <v>6</v>
       </c>
       <c r="G188">
-        <v>1729</v>
+        <v>1762</v>
       </c>
       <c r="H188">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="I188">
         <v>5</v>
@@ -3566,9 +3812,13 @@
       <c r="J188">
         <v>2</v>
       </c>
-      <c r="M188">
-        <f>M187+1</f>
-        <v>123</v>
+      <c r="L188">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="M188" s="1">
+        <f t="shared" si="4"/>
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="6:13" x14ac:dyDescent="0.25">
@@ -3576,10 +3826,10 @@
         <v>6</v>
       </c>
       <c r="G189">
-        <v>1762</v>
+        <v>1809</v>
       </c>
       <c r="H189">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="I189">
         <v>5</v>
@@ -3587,9 +3837,13 @@
       <c r="J189">
         <v>2</v>
       </c>
-      <c r="M189">
-        <f>M188+1</f>
-        <v>124</v>
+      <c r="L189">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="6:13" x14ac:dyDescent="0.25">
@@ -3597,10 +3851,10 @@
         <v>6</v>
       </c>
       <c r="G190">
-        <v>1809</v>
+        <v>1841</v>
       </c>
       <c r="H190">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="I190">
         <v>5</v>
@@ -3608,178 +3862,159 @@
       <c r="J190">
         <v>2</v>
       </c>
-      <c r="M190">
-        <f>M189+1</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="191" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F191">
-        <v>6</v>
-      </c>
-      <c r="G191">
-        <v>1841</v>
-      </c>
-      <c r="H191">
-        <v>128</v>
-      </c>
-      <c r="I191">
-        <v>5</v>
-      </c>
-      <c r="J191">
-        <v>2</v>
-      </c>
-      <c r="M191">
-        <f>M190+1</f>
-        <v>126</v>
-      </c>
+      <c r="L190">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="M190" s="1">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
     </row>
     <row r="193" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F193" t="s">
-        <v>33</v>
-      </c>
-      <c r="G193">
-        <v>30</v>
-      </c>
-      <c r="H193">
-        <v>350</v>
-      </c>
-      <c r="I193">
-        <v>9</v>
-      </c>
-      <c r="J193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F194" t="s">
-        <v>33</v>
-      </c>
-      <c r="G194">
-        <v>60</v>
-      </c>
-      <c r="H194">
-        <v>300</v>
-      </c>
-      <c r="I194">
-        <v>9</v>
-      </c>
-      <c r="J194">
-        <v>2</v>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+    </row>
+    <row r="195" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" t="s">
+        <v>34</v>
+      </c>
+      <c r="J197" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F198" t="s">
-        <v>36</v>
-      </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
-      <c r="H198" t="s">
-        <v>30</v>
-      </c>
-      <c r="I198" t="s">
-        <v>37</v>
-      </c>
-      <c r="J198" t="s">
-        <v>38</v>
+      <c r="F198">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>364</v>
+      </c>
+      <c r="H198">
+        <v>370</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>126</v>
+      </c>
+      <c r="M198" s="1">
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F199">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G199">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H199">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I199">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J199">
         <v>2</v>
       </c>
-      <c r="M199">
+      <c r="L199">
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="200" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F200">
+      <c r="M199" s="1">
+        <f>M198+1</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F201">
         <v>4</v>
       </c>
-      <c r="G200">
-        <v>354</v>
-      </c>
-      <c r="H200">
+      <c r="G201">
+        <v>1859</v>
+      </c>
+      <c r="H201">
         <v>369</v>
       </c>
-      <c r="I200">
+      <c r="I201">
         <v>4</v>
       </c>
-      <c r="J200">
+      <c r="J201">
         <v>2</v>
       </c>
-      <c r="M200">
-        <f>M199+1</f>
+      <c r="L201">
         <v>128</v>
       </c>
-    </row>
-    <row r="203" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F203">
+      <c r="M201" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="202" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F202">
         <v>12</v>
       </c>
-      <c r="G203">
+      <c r="G202">
         <v>1869</v>
       </c>
-      <c r="H203">
+      <c r="H202">
         <v>370</v>
       </c>
-      <c r="I203">
+      <c r="I202">
         <v>10</v>
       </c>
-      <c r="J203">
+      <c r="J202">
         <v>3</v>
       </c>
-      <c r="M203">
+      <c r="L202">
+        <f t="shared" ref="L202:L239" si="6">L201+1</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="204" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F204">
-        <v>4</v>
-      </c>
-      <c r="G204">
-        <v>1859</v>
-      </c>
-      <c r="H204">
-        <v>369</v>
-      </c>
-      <c r="I204">
-        <v>4</v>
-      </c>
-      <c r="J204">
-        <v>2</v>
-      </c>
-      <c r="M204">
-        <f>M203+1</f>
-        <v>130</v>
+      <c r="M202" s="1">
+        <f t="shared" ref="M200:N239" si="7">M201+1</f>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="6:13" x14ac:dyDescent="0.25">
@@ -3798,13 +4033,16 @@
       <c r="J206">
         <v>1</v>
       </c>
-      <c r="M206">
-        <v>131</v>
+      <c r="L206">
+        <v>130</v>
+      </c>
+      <c r="M206" s="1">
+        <v>126</v>
       </c>
     </row>
     <row r="208" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="6:13" x14ac:dyDescent="0.25">
@@ -3820,18 +4058,21 @@
       <c r="I209">
         <v>121212</v>
       </c>
-      <c r="M209">
-        <v>132</v>
+      <c r="L209">
+        <v>131</v>
+      </c>
+      <c r="M209" s="1">
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="6:13" x14ac:dyDescent="0.25">
@@ -3850,8 +4091,11 @@
       <c r="J213">
         <v>1</v>
       </c>
-      <c r="M213">
-        <v>133</v>
+      <c r="L213">
+        <v>132</v>
+      </c>
+      <c r="M213" s="1">
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="6:13" x14ac:dyDescent="0.25">
@@ -3870,14 +4114,18 @@
       <c r="J214">
         <v>1</v>
       </c>
-      <c r="M214">
-        <f>M213+1</f>
-        <v>134</v>
+      <c r="L214">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="M214" s="1">
+        <f t="shared" si="7"/>
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="217" spans="6:13" x14ac:dyDescent="0.25">
@@ -3885,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="G217">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="H217">
         <v>113</v>
@@ -3896,13 +4144,16 @@
       <c r="J217">
         <v>2</v>
       </c>
-      <c r="M217">
-        <v>135</v>
+      <c r="L217">
+        <v>134</v>
+      </c>
+      <c r="M217" s="1">
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="6:13" x14ac:dyDescent="0.25">
@@ -3921,13 +4172,16 @@
       <c r="J219">
         <v>3</v>
       </c>
-      <c r="M219">
-        <v>136</v>
+      <c r="L219">
+        <v>135</v>
+      </c>
+      <c r="M219" s="1">
+        <v>131</v>
       </c>
     </row>
     <row r="220" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="6:13" x14ac:dyDescent="0.25">
@@ -3946,8 +4200,11 @@
       <c r="J221">
         <v>2</v>
       </c>
-      <c r="M221">
-        <v>137</v>
+      <c r="L221">
+        <v>136</v>
+      </c>
+      <c r="M221" s="1">
+        <v>132</v>
       </c>
     </row>
     <row r="222" spans="6:13" x14ac:dyDescent="0.25">
@@ -3966,9 +4223,13 @@
       <c r="J222">
         <v>2</v>
       </c>
-      <c r="M222">
-        <f>M221+1</f>
-        <v>138</v>
+      <c r="L222">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="M222" s="1">
+        <f t="shared" si="7"/>
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="6:13" x14ac:dyDescent="0.25">
@@ -3987,9 +4248,13 @@
       <c r="J223">
         <v>2</v>
       </c>
-      <c r="M223">
-        <f>M222+1</f>
-        <v>139</v>
+      <c r="L223">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="M223" s="1">
+        <f t="shared" si="7"/>
+        <v>134</v>
       </c>
     </row>
     <row r="224" spans="6:13" x14ac:dyDescent="0.25">
@@ -4008,9 +4273,13 @@
       <c r="J224">
         <v>2</v>
       </c>
-      <c r="M224">
-        <f>M223+1</f>
-        <v>140</v>
+      <c r="L224">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="M224" s="1">
+        <f t="shared" si="7"/>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="6:13" x14ac:dyDescent="0.25">
@@ -4029,9 +4298,13 @@
       <c r="J225">
         <v>2</v>
       </c>
-      <c r="M225">
-        <f>M224+1</f>
-        <v>141</v>
+      <c r="L225">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="M225" s="1">
+        <f t="shared" si="7"/>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="6:13" x14ac:dyDescent="0.25">
@@ -4050,9 +4323,13 @@
       <c r="J226">
         <v>2</v>
       </c>
-      <c r="M226">
-        <f>M225+1</f>
-        <v>142</v>
+      <c r="L226">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="M226" s="1">
+        <f t="shared" si="7"/>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="6:13" x14ac:dyDescent="0.25">
@@ -4071,9 +4348,13 @@
       <c r="J227">
         <v>2</v>
       </c>
-      <c r="M227">
-        <f>M226+1</f>
-        <v>143</v>
+      <c r="L227">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="M227" s="1">
+        <f t="shared" si="7"/>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="6:13" x14ac:dyDescent="0.25">
@@ -4092,9 +4373,13 @@
       <c r="J228">
         <v>2</v>
       </c>
-      <c r="M228">
-        <f>M227+1</f>
-        <v>144</v>
+      <c r="L228">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="M228" s="1">
+        <f t="shared" si="7"/>
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="6:13" x14ac:dyDescent="0.25">
@@ -4113,9 +4398,13 @@
       <c r="J229">
         <v>2</v>
       </c>
-      <c r="M229">
-        <f>M228+1</f>
-        <v>145</v>
+      <c r="L229">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="M229" s="1">
+        <f t="shared" si="7"/>
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="6:13" x14ac:dyDescent="0.25">
@@ -4134,9 +4423,13 @@
       <c r="J230">
         <v>2</v>
       </c>
-      <c r="M230">
-        <f>M229+1</f>
-        <v>146</v>
+      <c r="L230">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="M230" s="1">
+        <f t="shared" si="7"/>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="6:13" x14ac:dyDescent="0.25">
@@ -4155,9 +4448,13 @@
       <c r="J231">
         <v>2</v>
       </c>
-      <c r="M231">
-        <f>M230+1</f>
-        <v>147</v>
+      <c r="L231">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="M231" s="1">
+        <f t="shared" si="7"/>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="6:13" x14ac:dyDescent="0.25">
@@ -4176,14 +4473,18 @@
       <c r="J232">
         <v>2</v>
       </c>
-      <c r="M232">
-        <f>M231+1</f>
-        <v>148</v>
+      <c r="L232">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="M232" s="1">
+        <f t="shared" si="7"/>
+        <v>143</v>
       </c>
     </row>
     <row r="233" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="6:13" x14ac:dyDescent="0.25">
@@ -4191,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="G234">
-        <v>1200</v>
+        <v>1326</v>
       </c>
       <c r="H234">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I234">
         <v>6</v>
@@ -4202,8 +4503,11 @@
       <c r="J234">
         <v>2</v>
       </c>
-      <c r="M234">
-        <v>149</v>
+      <c r="L234">
+        <v>148</v>
+      </c>
+      <c r="M234" s="1">
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="6:13" x14ac:dyDescent="0.25">
@@ -4211,10 +4515,10 @@
         <v>3</v>
       </c>
       <c r="G235">
-        <v>1300</v>
+        <v>1375</v>
       </c>
       <c r="H235">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="I235">
         <v>6</v>
@@ -4222,9 +4526,13 @@
       <c r="J235">
         <v>2</v>
       </c>
-      <c r="M235">
-        <f>M234+1</f>
-        <v>150</v>
+      <c r="L235">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="M235" s="1">
+        <f t="shared" si="7"/>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="6:13" x14ac:dyDescent="0.25">
@@ -4232,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="G236">
-        <v>1400</v>
+        <v>1426</v>
       </c>
       <c r="H236">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="I236">
         <v>6</v>
@@ -4243,10 +4551,3056 @@
       <c r="J236">
         <v>2</v>
       </c>
-      <c r="M236">
-        <f>M235+1</f>
+      <c r="L236">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="M236" s="1">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="238" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>132</v>
+      </c>
+      <c r="G238">
+        <v>2300</v>
+      </c>
+      <c r="H238">
+        <v>611</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="L238">
         <v>151</v>
       </c>
+      <c r="M238" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>132</v>
+      </c>
+      <c r="G239">
+        <v>2310</v>
+      </c>
+      <c r="H239">
+        <v>400</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="M239" s="1">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M240" s="2"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M241" s="2"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M242" s="2"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M243" s="2"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M244" s="2"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M245" s="2"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M246" s="2"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M247" s="2"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M248" s="2"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M249" s="2"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M250" s="2"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M251" s="2"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M252" s="2"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M253" s="2"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M254" s="2"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M255" s="2"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M256" s="2"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M257" s="2"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M258" s="2"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M259" s="2"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M260" s="2"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M261" s="2"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M262" s="2"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M263" s="2"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M264" s="2"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M265" s="2"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M266" s="2"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="2"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="2"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="2"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M270" s="2"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M271" s="2"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M272" s="2"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M273" s="2"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M274" s="2"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M275" s="2"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M276" s="2"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M277" s="2"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M278" s="2"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M279" s="2"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M280" s="2"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M281" s="2"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M282" s="2"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M283" s="2"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M284" s="2"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M285" s="2"/>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M286" s="2"/>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M287" s="2"/>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M288" s="2"/>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M289" s="2"/>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M290" s="2"/>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M291" s="2"/>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M292" s="2"/>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M293" s="2"/>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M294" s="2"/>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M295" s="2"/>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M296" s="2"/>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M297" s="2"/>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M298" s="2"/>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M299" s="2"/>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M300" s="2"/>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M301" s="2"/>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M302" s="2"/>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M303" s="2"/>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M304" s="2"/>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M305" s="2"/>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M306" s="2"/>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M307" s="2"/>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M308" s="2"/>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M309" s="2"/>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M310" s="2"/>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M311" s="2"/>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M312" s="2"/>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M313" s="2"/>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M314" s="2"/>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M315" s="2"/>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M316" s="2"/>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M317" s="2"/>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M318" s="2"/>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M319" s="2"/>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M320" s="2"/>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M321" s="2"/>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M322" s="2"/>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M323" s="2"/>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M324" s="2"/>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M325" s="2"/>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M326" s="2"/>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M327" s="2"/>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M328" s="2"/>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M329" s="2"/>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M330" s="2"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M331" s="2"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M332" s="2"/>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M333" s="2"/>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M334" s="2"/>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M335" s="2"/>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M336" s="2"/>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M337" s="2"/>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M338" s="2"/>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M339" s="2"/>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M340" s="2"/>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M341" s="2"/>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M342" s="2"/>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M343" s="2"/>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M344" s="2"/>
+    </row>
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M345" s="2"/>
+    </row>
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M346" s="2"/>
+    </row>
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M347" s="2"/>
+    </row>
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M348" s="2"/>
+    </row>
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M349" s="2"/>
+    </row>
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M350" s="2"/>
+    </row>
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M351" s="2"/>
+    </row>
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M352" s="2"/>
+    </row>
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M353" s="2"/>
+    </row>
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M354" s="2"/>
+    </row>
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M355" s="2"/>
+    </row>
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M356" s="2"/>
+    </row>
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M357" s="2"/>
+    </row>
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M358" s="2"/>
+    </row>
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M359" s="2"/>
+    </row>
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M360" s="2"/>
+    </row>
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M361" s="2"/>
+    </row>
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M362" s="2"/>
+    </row>
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M363" s="2"/>
+    </row>
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M364" s="2"/>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M365" s="2"/>
+    </row>
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M366" s="2"/>
+    </row>
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M367" s="2"/>
+    </row>
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M368" s="2"/>
+    </row>
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M369" s="2"/>
+    </row>
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M370" s="2"/>
+    </row>
+    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M371" s="2"/>
+    </row>
+    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M372" s="2"/>
+    </row>
+    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M373" s="2"/>
+    </row>
+    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M374" s="2"/>
+    </row>
+    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M375" s="2"/>
+    </row>
+    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M376" s="2"/>
+    </row>
+    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M377" s="2"/>
+    </row>
+    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="2"/>
+    </row>
+    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M379" s="2"/>
+    </row>
+    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M380" s="2"/>
+    </row>
+    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M381" s="2"/>
+    </row>
+    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M382" s="2"/>
+    </row>
+    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M383" s="2"/>
+    </row>
+    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M384" s="2"/>
+    </row>
+    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M385" s="2"/>
+    </row>
+    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M386" s="2"/>
+    </row>
+    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M387" s="2"/>
+    </row>
+    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M388" s="2"/>
+    </row>
+    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M389" s="2"/>
+    </row>
+    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M390" s="2"/>
+    </row>
+    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M391" s="2"/>
+    </row>
+    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M392" s="2"/>
+    </row>
+    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M393" s="2"/>
+    </row>
+    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M394" s="2"/>
+    </row>
+    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M395" s="2"/>
+    </row>
+    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M396" s="2"/>
+    </row>
+    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M397" s="2"/>
+    </row>
+    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M398" s="2"/>
+    </row>
+    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M399" s="2"/>
+    </row>
+    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M400" s="2"/>
+    </row>
+    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M401" s="2"/>
+    </row>
+    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M402" s="2"/>
+    </row>
+    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M403" s="2"/>
+    </row>
+    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M404" s="2"/>
+    </row>
+    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M405" s="2"/>
+    </row>
+    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M406" s="2"/>
+    </row>
+    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M407" s="2"/>
+    </row>
+    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M408" s="2"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" s="2"/>
+    </row>
+    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M410" s="2"/>
+    </row>
+    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M411" s="2"/>
+    </row>
+    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M412" s="2"/>
+    </row>
+    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M413" s="2"/>
+    </row>
+    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M414" s="2"/>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M415" s="2"/>
+    </row>
+    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="2"/>
+    </row>
+    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="2"/>
+    </row>
+    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="2"/>
+    </row>
+    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="2"/>
+    </row>
+    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="2"/>
+    </row>
+    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M421" s="2"/>
+    </row>
+    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M422" s="2"/>
+    </row>
+    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="2"/>
+    </row>
+    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M424" s="2"/>
+    </row>
+    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M425" s="2"/>
+    </row>
+    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M426" s="2"/>
+    </row>
+    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="2"/>
+    </row>
+    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="2"/>
+    </row>
+    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="2"/>
+    </row>
+    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="2"/>
+    </row>
+    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M431" s="2"/>
+    </row>
+    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M432" s="2"/>
+    </row>
+    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M433" s="2"/>
+    </row>
+    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M434" s="2"/>
+    </row>
+    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M435" s="2"/>
+    </row>
+    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M436" s="2"/>
+    </row>
+    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M437" s="2"/>
+    </row>
+    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M438" s="2"/>
+    </row>
+    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M439" s="2"/>
+    </row>
+    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M440" s="2"/>
+    </row>
+    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M441" s="2"/>
+    </row>
+    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M442" s="2"/>
+    </row>
+    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M443" s="2"/>
+    </row>
+    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M444" s="2"/>
+    </row>
+    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M445" s="2"/>
+    </row>
+    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M446" s="2"/>
+    </row>
+    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M447" s="2"/>
+    </row>
+    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M448" s="2"/>
+    </row>
+    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M449" s="2"/>
+    </row>
+    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M450" s="2"/>
+    </row>
+    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M451" s="2"/>
+    </row>
+    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M452" s="2"/>
+    </row>
+    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M453" s="2"/>
+    </row>
+    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M454" s="2"/>
+    </row>
+    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M455" s="2"/>
+    </row>
+    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M456" s="2"/>
+    </row>
+    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M457" s="2"/>
+    </row>
+    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M458" s="2"/>
+    </row>
+    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M459" s="2"/>
+    </row>
+    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M460" s="2"/>
+    </row>
+    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M461" s="2"/>
+    </row>
+    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M462" s="2"/>
+    </row>
+    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M463" s="2"/>
+    </row>
+    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M464" s="2"/>
+    </row>
+    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="2"/>
+    </row>
+    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="2"/>
+    </row>
+    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="2"/>
+    </row>
+    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="2"/>
+    </row>
+    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="2"/>
+    </row>
+    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M470" s="2"/>
+    </row>
+    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M471" s="2"/>
+    </row>
+    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="2"/>
+    </row>
+    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="2"/>
+    </row>
+    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="2"/>
+    </row>
+    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="2"/>
+    </row>
+    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="2"/>
+    </row>
+    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="2"/>
+    </row>
+    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="2"/>
+    </row>
+    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M479" s="2"/>
+    </row>
+    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M480" s="2"/>
+    </row>
+    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M481" s="2"/>
+    </row>
+    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="2"/>
+    </row>
+    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="2"/>
+    </row>
+    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="2"/>
+    </row>
+    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="2"/>
+    </row>
+    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="2"/>
+    </row>
+    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="2"/>
+    </row>
+    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="2"/>
+    </row>
+    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="2"/>
+    </row>
+    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M490" s="2"/>
+    </row>
+    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M491" s="2"/>
+    </row>
+    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="2"/>
+    </row>
+    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="2"/>
+    </row>
+    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="2"/>
+    </row>
+    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="2"/>
+    </row>
+    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="2"/>
+    </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="2"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="2"/>
+    </row>
+    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M499" s="2"/>
+    </row>
+    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="2"/>
+    </row>
+    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M501" s="2"/>
+    </row>
+    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="2"/>
+    </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="2"/>
+    </row>
+    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="2"/>
+    </row>
+    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="2"/>
+    </row>
+    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="2"/>
+    </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="2"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="2"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="2"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="2"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="2"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="2"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="2"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="2"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="2"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="2"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="2"/>
+    </row>
+    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M518" s="2"/>
+    </row>
+    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M519" s="2"/>
+    </row>
+    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M520" s="2"/>
+    </row>
+    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M521" s="2"/>
+    </row>
+    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M522" s="2"/>
+    </row>
+    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M523" s="2"/>
+    </row>
+    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M524" s="2"/>
+    </row>
+    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M525" s="2"/>
+    </row>
+    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M526" s="2"/>
+    </row>
+    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M527" s="2"/>
+    </row>
+    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M528" s="2"/>
+    </row>
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M529" s="2"/>
+    </row>
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M530" s="2"/>
+    </row>
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M531" s="2"/>
+    </row>
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M532" s="2"/>
+    </row>
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M533" s="2"/>
+    </row>
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M534" s="2"/>
+    </row>
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M535" s="2"/>
+    </row>
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M536" s="2"/>
+    </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="2"/>
+    </row>
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M538" s="2"/>
+    </row>
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M539" s="2"/>
+    </row>
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M540" s="2"/>
+    </row>
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M541" s="2"/>
+    </row>
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="2"/>
+    </row>
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M543" s="2"/>
+    </row>
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M544" s="2"/>
+    </row>
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M545" s="2"/>
+    </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="2"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="2"/>
+    </row>
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M548" s="2"/>
+    </row>
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M549" s="2"/>
+    </row>
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M550" s="2"/>
+    </row>
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="2"/>
+    </row>
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="2"/>
+    </row>
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M553" s="2"/>
+    </row>
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M554" s="2"/>
+    </row>
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="2"/>
+    </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="2"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="2"/>
+    </row>
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="2"/>
+    </row>
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M559" s="2"/>
+    </row>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="2"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="2"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="2"/>
+    </row>
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M563" s="2"/>
+    </row>
+    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M564" s="2"/>
+    </row>
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M565" s="2"/>
+    </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="2"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="2"/>
+    </row>
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M568" s="2"/>
+    </row>
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M569" s="2"/>
+    </row>
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="2"/>
+    </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="2"/>
+    </row>
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="2"/>
+    </row>
+    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M573" s="2"/>
+    </row>
+    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M574" s="2"/>
+    </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="2"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="2"/>
+    </row>
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M577" s="2"/>
+    </row>
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M578" s="2"/>
+    </row>
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M579" s="2"/>
+    </row>
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M580" s="2"/>
+    </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="2"/>
+    </row>
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M582" s="2"/>
+    </row>
+    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M583" s="2"/>
+    </row>
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M584" s="2"/>
+    </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="2"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="2"/>
+    </row>
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M587" s="2"/>
+    </row>
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M588" s="2"/>
+    </row>
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M589" s="2"/>
+    </row>
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M590" s="2"/>
+    </row>
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M591" s="2"/>
+    </row>
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M592" s="2"/>
+    </row>
+    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M593" s="2"/>
+    </row>
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M594" s="2"/>
+    </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="2"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="2"/>
+    </row>
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M597" s="2"/>
+    </row>
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M598" s="2"/>
+    </row>
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="2"/>
+    </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="2"/>
+    </row>
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="2"/>
+    </row>
+    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M602" s="2"/>
+    </row>
+    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M603" s="2"/>
+    </row>
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M604" s="2"/>
+    </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="2"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="2"/>
+    </row>
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M607" s="2"/>
+    </row>
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M608" s="2"/>
+    </row>
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M609" s="2"/>
+    </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="2"/>
+    </row>
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M611" s="2"/>
+    </row>
+    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M612" s="2"/>
+    </row>
+    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M613" s="2"/>
+    </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="2"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="2"/>
+    </row>
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M616" s="2"/>
+    </row>
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M617" s="2"/>
+    </row>
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M618" s="2"/>
+    </row>
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="2"/>
+    </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="2"/>
+    </row>
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M621" s="2"/>
+    </row>
+    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M622" s="2"/>
+    </row>
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M623" s="2"/>
+    </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="2"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="2"/>
+    </row>
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M626" s="2"/>
+    </row>
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M627" s="2"/>
+    </row>
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="2"/>
+    </row>
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M629" s="2"/>
+    </row>
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M630" s="2"/>
+    </row>
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M631" s="2"/>
+    </row>
+    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M632" s="2"/>
+    </row>
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M633" s="2"/>
+    </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="2"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="2"/>
+    </row>
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M636" s="2"/>
+    </row>
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M637" s="2"/>
+    </row>
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M638" s="2"/>
+    </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="2"/>
+    </row>
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M640" s="2"/>
+    </row>
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M641" s="2"/>
+    </row>
+    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M642" s="2"/>
+    </row>
+    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M643" s="2"/>
+    </row>
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M644" s="2"/>
+    </row>
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M645" s="2"/>
+    </row>
+    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M646" s="2"/>
+    </row>
+    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M647" s="2"/>
+    </row>
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M648" s="2"/>
+    </row>
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M649" s="2"/>
+    </row>
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M650" s="2"/>
+    </row>
+    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M651" s="2"/>
+    </row>
+    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M652" s="2"/>
+    </row>
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M653" s="2"/>
+    </row>
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M654" s="2"/>
+    </row>
+    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M655" s="2"/>
+    </row>
+    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M656" s="2"/>
+    </row>
+    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M657" s="2"/>
+    </row>
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M658" s="2"/>
+    </row>
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M659" s="2"/>
+    </row>
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M660" s="2"/>
+    </row>
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M661" s="2"/>
+    </row>
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M662" s="2"/>
+    </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M663" s="2"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M664" s="2"/>
+    </row>
+    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M665" s="2"/>
+    </row>
+    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M666" s="2"/>
+    </row>
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M667" s="2"/>
+    </row>
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M668" s="2"/>
+    </row>
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M669" s="2"/>
+    </row>
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M670" s="2"/>
+    </row>
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M671" s="2"/>
+    </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="2"/>
+    </row>
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M673" s="2"/>
+    </row>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="2"/>
+    </row>
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M675" s="2"/>
+    </row>
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M676" s="2"/>
+    </row>
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M677" s="2"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M678" s="2"/>
+    </row>
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M679" s="2"/>
+    </row>
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M680" s="2"/>
+    </row>
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M681" s="2"/>
+    </row>
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M682" s="2"/>
+    </row>
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M683" s="2"/>
+    </row>
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M684" s="2"/>
+    </row>
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M685" s="2"/>
+    </row>
+    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M686" s="2"/>
+    </row>
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M687" s="2"/>
+    </row>
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M688" s="2"/>
+    </row>
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M689" s="2"/>
+    </row>
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M690" s="2"/>
+    </row>
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M691" s="2"/>
+    </row>
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M692" s="2"/>
+    </row>
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M693" s="2"/>
+    </row>
+    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M694" s="2"/>
+    </row>
+    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M695" s="2"/>
+    </row>
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M696" s="2"/>
+    </row>
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M697" s="2"/>
+    </row>
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M698" s="2"/>
+    </row>
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M699" s="2"/>
+    </row>
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M700" s="2"/>
+    </row>
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M701" s="2"/>
+    </row>
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M702" s="2"/>
+    </row>
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M703" s="2"/>
+    </row>
+    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M704" s="2"/>
+    </row>
+    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M705" s="2"/>
+    </row>
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M706" s="2"/>
+    </row>
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M707" s="2"/>
+    </row>
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M708" s="2"/>
+    </row>
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M709" s="2"/>
+    </row>
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M710" s="2"/>
+    </row>
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M711" s="2"/>
+    </row>
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M712" s="2"/>
+    </row>
+    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M713" s="2"/>
+    </row>
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M714" s="2"/>
+    </row>
+    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M715" s="2"/>
+    </row>
+    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M716" s="2"/>
+    </row>
+    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M717" s="2"/>
+    </row>
+    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M718" s="2"/>
+    </row>
+    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M719" s="2"/>
+    </row>
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M720" s="2"/>
+    </row>
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M721" s="2"/>
+    </row>
+    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M722" s="2"/>
+    </row>
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M723" s="2"/>
+    </row>
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M724" s="2"/>
+    </row>
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M725" s="2"/>
+    </row>
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M726" s="2"/>
+    </row>
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M727" s="2"/>
+    </row>
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M728" s="2"/>
+    </row>
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M729" s="2"/>
+    </row>
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M730" s="2"/>
+    </row>
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M731" s="2"/>
+    </row>
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M732" s="2"/>
+    </row>
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M733" s="2"/>
+    </row>
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M734" s="2"/>
+    </row>
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M735" s="2"/>
+    </row>
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M736" s="2"/>
+    </row>
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M737" s="2"/>
+    </row>
+    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M738" s="2"/>
+    </row>
+    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M739" s="2"/>
+    </row>
+    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M740" s="2"/>
+    </row>
+    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M741" s="2"/>
+    </row>
+    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M742" s="2"/>
+    </row>
+    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M743" s="2"/>
+    </row>
+    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M744" s="2"/>
+    </row>
+    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M745" s="2"/>
+    </row>
+    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M746" s="2"/>
+    </row>
+    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M747" s="2"/>
+    </row>
+    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M748" s="2"/>
+    </row>
+    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M749" s="2"/>
+    </row>
+    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M750" s="2"/>
+    </row>
+    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M751" s="2"/>
+    </row>
+    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M752" s="2"/>
+    </row>
+    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M753" s="2"/>
+    </row>
+    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M754" s="2"/>
+    </row>
+    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M755" s="2"/>
+    </row>
+    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M756" s="2"/>
+    </row>
+    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M757" s="2"/>
+    </row>
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M758" s="2"/>
+    </row>
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M759" s="2"/>
+    </row>
+    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M760" s="2"/>
+    </row>
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M761" s="2"/>
+    </row>
+    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M762" s="2"/>
+    </row>
+    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M763" s="2"/>
+    </row>
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M764" s="2"/>
+    </row>
+    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M765" s="2"/>
+    </row>
+    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M766" s="2"/>
+    </row>
+    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M767" s="2"/>
+    </row>
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M768" s="2"/>
+    </row>
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M769" s="2"/>
+    </row>
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M770" s="2"/>
+    </row>
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M771" s="2"/>
+    </row>
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M772" s="2"/>
+    </row>
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M773" s="2"/>
+    </row>
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M774" s="2"/>
+    </row>
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M775" s="2"/>
+    </row>
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M776" s="2"/>
+    </row>
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M777" s="2"/>
+    </row>
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M778" s="2"/>
+    </row>
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M779" s="2"/>
+    </row>
+    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M780" s="2"/>
+    </row>
+    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M781" s="2"/>
+    </row>
+    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M782" s="2"/>
+    </row>
+    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M783" s="2"/>
+    </row>
+    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M784" s="2"/>
+    </row>
+    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M785" s="2"/>
+    </row>
+    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M786" s="2"/>
+    </row>
+    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M787" s="2"/>
+    </row>
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M788" s="2"/>
+    </row>
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M789" s="2"/>
+    </row>
+    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M790" s="2"/>
+    </row>
+    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M791" s="2"/>
+    </row>
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M792" s="2"/>
+    </row>
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M793" s="2"/>
+    </row>
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M794" s="2"/>
+    </row>
+    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M795" s="2"/>
+    </row>
+    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M796" s="2"/>
+    </row>
+    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M797" s="2"/>
+    </row>
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M798" s="2"/>
+    </row>
+    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M799" s="2"/>
+    </row>
+    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M800" s="2"/>
+    </row>
+    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M801" s="2"/>
+    </row>
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M802" s="2"/>
+    </row>
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M803" s="2"/>
+    </row>
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M804" s="2"/>
+    </row>
+    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M805" s="2"/>
+    </row>
+    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M806" s="2"/>
+    </row>
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M807" s="2"/>
+    </row>
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M808" s="2"/>
+    </row>
+    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M809" s="2"/>
+    </row>
+    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M810" s="2"/>
+    </row>
+    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M811" s="2"/>
+    </row>
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M812" s="2"/>
+    </row>
+    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M813" s="2"/>
+    </row>
+    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M814" s="2"/>
+    </row>
+    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M815" s="2"/>
+    </row>
+    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M816" s="2"/>
+    </row>
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M817" s="2"/>
+    </row>
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M818" s="2"/>
+    </row>
+    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M819" s="2"/>
+    </row>
+    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M820" s="2"/>
+    </row>
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M821" s="2"/>
+    </row>
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M822" s="2"/>
+    </row>
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M823" s="2"/>
+    </row>
+    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M824" s="2"/>
+    </row>
+    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M825" s="2"/>
+    </row>
+    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M826" s="2"/>
+    </row>
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M827" s="2"/>
+    </row>
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M828" s="2"/>
+    </row>
+    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M829" s="2"/>
+    </row>
+    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M830" s="2"/>
+    </row>
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M831" s="2"/>
+    </row>
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M832" s="2"/>
+    </row>
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M833" s="2"/>
+    </row>
+    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M834" s="2"/>
+    </row>
+    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M835" s="2"/>
+    </row>
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M836" s="2"/>
+    </row>
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M837" s="2"/>
+    </row>
+    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M838" s="2"/>
+    </row>
+    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M839" s="2"/>
+    </row>
+    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M840" s="2"/>
+    </row>
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M841" s="2"/>
+    </row>
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M842" s="2"/>
+    </row>
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M843" s="2"/>
+    </row>
+    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M844" s="2"/>
+    </row>
+    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M845" s="2"/>
+    </row>
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M846" s="2"/>
+    </row>
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M847" s="2"/>
+    </row>
+    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M848" s="2"/>
+    </row>
+    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M849" s="2"/>
+    </row>
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M850" s="2"/>
+    </row>
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M851" s="2"/>
+    </row>
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M852" s="2"/>
+    </row>
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M853" s="2"/>
+    </row>
+    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M854" s="2"/>
+    </row>
+    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M855" s="2"/>
+    </row>
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M856" s="2"/>
+    </row>
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M857" s="2"/>
+    </row>
+    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M858" s="2"/>
+    </row>
+    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M859" s="2"/>
+    </row>
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M860" s="2"/>
+    </row>
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M861" s="2"/>
+    </row>
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M862" s="2"/>
+    </row>
+    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M863" s="2"/>
+    </row>
+    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M864" s="2"/>
+    </row>
+    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M865" s="2"/>
+    </row>
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M866" s="2"/>
+    </row>
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M867" s="2"/>
+    </row>
+    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M868" s="2"/>
+    </row>
+    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M869" s="2"/>
+    </row>
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M870" s="2"/>
+    </row>
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M871" s="2"/>
+    </row>
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M872" s="2"/>
+    </row>
+    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M873" s="2"/>
+    </row>
+    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M874" s="2"/>
+    </row>
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M875" s="2"/>
+    </row>
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M876" s="2"/>
+    </row>
+    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M877" s="2"/>
+    </row>
+    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M878" s="2"/>
+    </row>
+    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M879" s="2"/>
+    </row>
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M880" s="2"/>
+    </row>
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M881" s="2"/>
+    </row>
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M882" s="2"/>
+    </row>
+    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M883" s="2"/>
+    </row>
+    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M884" s="2"/>
+    </row>
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M885" s="2"/>
+    </row>
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M886" s="2"/>
+    </row>
+    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M887" s="2"/>
+    </row>
+    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M888" s="2"/>
+    </row>
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M889" s="2"/>
+    </row>
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M890" s="2"/>
+    </row>
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M891" s="2"/>
+    </row>
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M892" s="2"/>
+    </row>
+    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M893" s="2"/>
+    </row>
+    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M894" s="2"/>
+    </row>
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M895" s="2"/>
+    </row>
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M896" s="2"/>
+    </row>
+    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M897" s="2"/>
+    </row>
+    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M898" s="2"/>
+    </row>
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M899" s="2"/>
+    </row>
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M900" s="2"/>
+    </row>
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M901" s="2"/>
+    </row>
+    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M902" s="2"/>
+    </row>
+    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M903" s="2"/>
+    </row>
+    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M904" s="2"/>
+    </row>
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M905" s="2"/>
+    </row>
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M906" s="2"/>
+    </row>
+    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M907" s="2"/>
+    </row>
+    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M908" s="2"/>
+    </row>
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M909" s="2"/>
+    </row>
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M910" s="2"/>
+    </row>
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M911" s="2"/>
+    </row>
+    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M912" s="2"/>
+    </row>
+    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M913" s="2"/>
+    </row>
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M914" s="2"/>
+    </row>
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M915" s="2"/>
+    </row>
+    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M916" s="2"/>
+    </row>
+    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M917" s="2"/>
+    </row>
+    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M918" s="2"/>
+    </row>
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M919" s="2"/>
+    </row>
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M920" s="2"/>
+    </row>
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M921" s="2"/>
+    </row>
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M922" s="2"/>
+    </row>
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M923" s="2"/>
+    </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M924" s="2"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M925" s="2"/>
+    </row>
+    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M926" s="2"/>
+    </row>
+    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M927" s="2"/>
+    </row>
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M928" s="2"/>
+    </row>
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M929" s="2"/>
+    </row>
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M930" s="2"/>
+    </row>
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M931" s="2"/>
+    </row>
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M932" s="2"/>
+    </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M933" s="2"/>
+    </row>
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M934" s="2"/>
+    </row>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M935" s="2"/>
+    </row>
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M936" s="2"/>
+    </row>
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M937" s="2"/>
+    </row>
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M938" s="2"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M939" s="2"/>
+    </row>
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M940" s="2"/>
+    </row>
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M941" s="2"/>
+    </row>
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M942" s="2"/>
+    </row>
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M943" s="2"/>
+    </row>
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M944" s="2"/>
+    </row>
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M945" s="2"/>
+    </row>
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M946" s="2"/>
+    </row>
+    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M947" s="2"/>
+    </row>
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M948" s="2"/>
+    </row>
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M949" s="2"/>
+    </row>
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M950" s="2"/>
+    </row>
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M951" s="2"/>
+    </row>
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M952" s="2"/>
+    </row>
+    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M953" s="2"/>
+    </row>
+    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M954" s="2"/>
+    </row>
+    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M955" s="2"/>
+    </row>
+    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M956" s="2"/>
+    </row>
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M957" s="2"/>
+    </row>
+    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M958" s="2"/>
+    </row>
+    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M959" s="2"/>
+    </row>
+    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M960" s="2"/>
+    </row>
+    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M961" s="2"/>
+    </row>
+    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M962" s="2"/>
+    </row>
+    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M963" s="2"/>
+    </row>
+    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M964" s="2"/>
+    </row>
+    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M965" s="2"/>
+    </row>
+    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M966" s="2"/>
+    </row>
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M967" s="2"/>
+    </row>
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M968" s="2"/>
+    </row>
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M969" s="2"/>
+    </row>
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M970" s="2"/>
+    </row>
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M971" s="2"/>
+    </row>
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M972" s="2"/>
+    </row>
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M973" s="2"/>
+    </row>
+    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M974" s="2"/>
+    </row>
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M975" s="2"/>
+    </row>
+    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M976" s="2"/>
+    </row>
+    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M977" s="2"/>
+    </row>
+    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M978" s="2"/>
+    </row>
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M979" s="2"/>
+    </row>
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M980" s="2"/>
+    </row>
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M981" s="2"/>
+    </row>
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M982" s="2"/>
+    </row>
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M983" s="2"/>
+    </row>
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M984" s="2"/>
+    </row>
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M985" s="2"/>
+    </row>
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M986" s="2"/>
+    </row>
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M987" s="2"/>
+    </row>
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M988" s="2"/>
+    </row>
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M989" s="2"/>
+    </row>
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M990" s="2"/>
+    </row>
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M991" s="2"/>
+    </row>
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M992" s="2"/>
+    </row>
+    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M993" s="2"/>
+    </row>
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M994" s="2"/>
+    </row>
+    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M995" s="2"/>
+    </row>
+    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M996" s="2"/>
+    </row>
+    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M997" s="2"/>
+    </row>
+    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M998" s="2"/>
+    </row>
+    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M999" s="2"/>
+    </row>
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1000" s="2"/>
+    </row>
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1001" s="2"/>
+    </row>
+    <row r="1002" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1002" s="2"/>
+    </row>
+    <row r="1003" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1003" s="2"/>
+    </row>
+    <row r="1004" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1004" s="2"/>
+    </row>
+    <row r="1005" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1005" s="2"/>
+    </row>
+    <row r="1006" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1006" s="2"/>
+    </row>
+    <row r="1007" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1007" s="2"/>
+    </row>
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1008" s="2"/>
+    </row>
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1009" s="2"/>
+    </row>
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1010" s="2"/>
+    </row>
+    <row r="1011" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1011" s="2"/>
+    </row>
+    <row r="1012" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1012" s="2"/>
+    </row>
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1013" s="2"/>
+    </row>
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1014" s="2"/>
+    </row>
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1015" s="2"/>
+    </row>
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1016" s="2"/>
+    </row>
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1017" s="2"/>
+    </row>
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1018" s="2"/>
+    </row>
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1019" s="2"/>
+    </row>
+    <row r="1020" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1020" s="2"/>
+    </row>
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1021" s="2"/>
+    </row>
+    <row r="1022" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1022" s="2"/>
+    </row>
+    <row r="1023" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1023" s="2"/>
+    </row>
+    <row r="1024" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1024" s="2"/>
+    </row>
+    <row r="1025" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1025" s="2"/>
+    </row>
+    <row r="1026" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1026" s="2"/>
+    </row>
+    <row r="1027" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1027" s="2"/>
+    </row>
+    <row r="1028" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1028" s="2"/>
+    </row>
+    <row r="1029" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1029" s="2"/>
+    </row>
+    <row r="1030" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1030" s="2"/>
+    </row>
+    <row r="1031" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1031" s="2"/>
+    </row>
+    <row r="1032" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1032" s="2"/>
+    </row>
+    <row r="1033" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1033" s="2"/>
+    </row>
+    <row r="1034" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1034" s="2"/>
+    </row>
+    <row r="1035" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1035" s="2"/>
+    </row>
+    <row r="1036" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1036" s="2"/>
+    </row>
+    <row r="1037" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1037" s="2"/>
+    </row>
+    <row r="1038" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1038" s="2"/>
+    </row>
+    <row r="1039" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1039" s="2"/>
+    </row>
+    <row r="1040" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1040" s="2"/>
+    </row>
+    <row r="1041" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1041" s="2"/>
+    </row>
+    <row r="1042" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1042" s="2"/>
+    </row>
+    <row r="1043" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1043" s="2"/>
+    </row>
+    <row r="1044" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1044" s="2"/>
+    </row>
+    <row r="1045" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1045" s="2"/>
+    </row>
+    <row r="1046" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1046" s="2"/>
+    </row>
+    <row r="1047" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1047" s="2"/>
+    </row>
+    <row r="1048" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1048" s="2"/>
+    </row>
+    <row r="1049" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1049" s="2"/>
+    </row>
+    <row r="1050" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1050" s="2"/>
+    </row>
+    <row r="1051" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1051" s="2"/>
+    </row>
+    <row r="1052" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1052" s="2"/>
+    </row>
+    <row r="1053" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1053" s="2"/>
+    </row>
+    <row r="1054" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1054" s="2"/>
+    </row>
+    <row r="1055" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1055" s="2"/>
+    </row>
+    <row r="1056" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1056" s="2"/>
+    </row>
+    <row r="1057" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1057" s="2"/>
+    </row>
+    <row r="1058" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1058" s="2"/>
+    </row>
+    <row r="1059" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1059" s="2"/>
+    </row>
+    <row r="1060" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1060" s="2"/>
+    </row>
+    <row r="1061" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1061" s="2"/>
+    </row>
+    <row r="1062" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1062" s="2"/>
+    </row>
+    <row r="1063" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1063" s="2"/>
+    </row>
+    <row r="1064" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1064" s="2"/>
+    </row>
+    <row r="1065" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1065" s="2"/>
+    </row>
+    <row r="1066" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1066" s="2"/>
+    </row>
+    <row r="1067" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1067" s="2"/>
+    </row>
+    <row r="1068" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1068" s="2"/>
+    </row>
+    <row r="1069" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1069" s="2"/>
+    </row>
+    <row r="1070" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1070" s="2"/>
+    </row>
+    <row r="1071" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1071" s="2"/>
+    </row>
+    <row r="1072" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1072" s="2"/>
+    </row>
+    <row r="1073" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1073" s="2"/>
+    </row>
+    <row r="1074" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1074" s="2"/>
+    </row>
+    <row r="1075" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1075" s="2"/>
+    </row>
+    <row r="1076" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1076" s="2"/>
+    </row>
+    <row r="1077" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1077" s="2"/>
+    </row>
+    <row r="1078" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1078" s="2"/>
+    </row>
+    <row r="1079" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1079" s="2"/>
+    </row>
+    <row r="1080" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1080" s="2"/>
+    </row>
+    <row r="1081" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1081" s="2"/>
+    </row>
+    <row r="1082" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1082" s="2"/>
+    </row>
+    <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1083" s="2"/>
+    </row>
+    <row r="1084" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1084" s="2"/>
+    </row>
+    <row r="1085" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1085" s="2"/>
+    </row>
+    <row r="1086" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1086" s="2"/>
+    </row>
+    <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1087" s="2"/>
+    </row>
+    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1088" s="2"/>
+    </row>
+    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1089" s="2"/>
+    </row>
+    <row r="1090" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1090" s="2"/>
+    </row>
+    <row r="1091" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1091" s="2"/>
+    </row>
+    <row r="1092" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1092" s="2"/>
+    </row>
+    <row r="1093" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1093" s="2"/>
+    </row>
+    <row r="1094" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1094" s="2"/>
+    </row>
+    <row r="1095" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1095" s="2"/>
+    </row>
+    <row r="1096" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1096" s="2"/>
+    </row>
+    <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1097" s="2"/>
+    </row>
+    <row r="1098" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1098" s="2"/>
+    </row>
+    <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1099" s="2"/>
+    </row>
+    <row r="1100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1100" s="2"/>
+    </row>
+    <row r="1101" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1101" s="2"/>
+    </row>
+    <row r="1102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1102" s="2"/>
+    </row>
+    <row r="1103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1103" s="2"/>
+    </row>
+    <row r="1104" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1104" s="2"/>
+    </row>
+    <row r="1105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1105" s="2"/>
+    </row>
+    <row r="1106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1106" s="2"/>
+    </row>
+    <row r="1107" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1107" s="2"/>
+    </row>
+    <row r="1108" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1108" s="2"/>
+    </row>
+    <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1109" s="2"/>
+    </row>
+    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1110" s="2"/>
+    </row>
+    <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1111" s="2"/>
+    </row>
+    <row r="1112" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1112" s="2"/>
+    </row>
+    <row r="1113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1113" s="2"/>
+    </row>
+    <row r="1114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1114" s="2"/>
+    </row>
+    <row r="1115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1115" s="2"/>
+    </row>
+    <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1116" s="2"/>
+    </row>
+    <row r="1117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1117" s="2"/>
+    </row>
+    <row r="1118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1118" s="2"/>
+    </row>
+    <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1119" s="2"/>
+    </row>
+    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1120" s="2"/>
+    </row>
+    <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1121" s="2"/>
+    </row>
+    <row r="1122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1122" s="2"/>
+    </row>
+    <row r="1123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1123" s="2"/>
+    </row>
+    <row r="1124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1124" s="2"/>
+    </row>
+    <row r="1125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1125" s="2"/>
+    </row>
+    <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1126" s="2"/>
+    </row>
+    <row r="1127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1127" s="2"/>
+    </row>
+    <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1128" s="2"/>
+    </row>
+    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1129" s="2"/>
+    </row>
+    <row r="1130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1130" s="2"/>
+    </row>
+    <row r="1131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1131" s="2"/>
+    </row>
+    <row r="1132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1132" s="2"/>
+    </row>
+    <row r="1133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1133" s="2"/>
+    </row>
+    <row r="1134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1134" s="2"/>
+    </row>
+    <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1135" s="2"/>
+    </row>
+    <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1136" s="2"/>
+    </row>
+    <row r="1137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1137" s="2"/>
+    </row>
+    <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1138" s="2"/>
+    </row>
+    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1139" s="2"/>
+    </row>
+    <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1140" s="2"/>
+    </row>
+    <row r="1141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1141" s="2"/>
+    </row>
+    <row r="1142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1142" s="2"/>
+    </row>
+    <row r="1143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1143" s="2"/>
+    </row>
+    <row r="1144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1144" s="2"/>
+    </row>
+    <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1145" s="2"/>
+    </row>
+    <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1146" s="2"/>
+    </row>
+    <row r="1147" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1147" s="2"/>
+    </row>
+    <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1148" s="2"/>
+    </row>
+    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1149" s="2"/>
+    </row>
+    <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1150" s="2"/>
+    </row>
+    <row r="1151" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1151" s="2"/>
+    </row>
+    <row r="1152" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1152" s="2"/>
+    </row>
+    <row r="1153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1153" s="2"/>
+    </row>
+    <row r="1154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1154" s="2"/>
+    </row>
+    <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1155" s="2"/>
+    </row>
+    <row r="1156" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1156" s="2"/>
+    </row>
+    <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1157" s="2"/>
+    </row>
+    <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1158" s="2"/>
+    </row>
+    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1159" s="2"/>
+    </row>
+    <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1160" s="2"/>
+    </row>
+    <row r="1161" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1161" s="2"/>
+    </row>
+    <row r="1162" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1162" s="2"/>
+    </row>
+    <row r="1163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1163" s="2"/>
+    </row>
+    <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1164" s="2"/>
+    </row>
+    <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1165" s="2"/>
+    </row>
+    <row r="1166" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1166" s="2"/>
+    </row>
+    <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1167" s="2"/>
+    </row>
+    <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1168" s="2"/>
+    </row>
+    <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1169" s="2"/>
+    </row>
+    <row r="1170" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1170" s="2"/>
+    </row>
+    <row r="1171" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1171" s="2"/>
+    </row>
+    <row r="1172" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1172" s="2"/>
+    </row>
+    <row r="1173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1173" s="2"/>
+    </row>
+    <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1174" s="2"/>
+    </row>
+    <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1175" s="2"/>
+    </row>
+    <row r="1176" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1176" s="2"/>
+    </row>
+    <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1177" s="2"/>
+    </row>
+    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1178" s="2"/>
+    </row>
+    <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1179" s="2"/>
+    </row>
+    <row r="1180" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1180" s="2"/>
+    </row>
+    <row r="1181" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1181" s="2"/>
+    </row>
+    <row r="1182" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1182" s="2"/>
+    </row>
+    <row r="1183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1183" s="2"/>
+    </row>
+    <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1184" s="2"/>
+    </row>
+    <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1185" s="2"/>
+    </row>
+    <row r="1186" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1186" s="2"/>
+    </row>
+    <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1187" s="2"/>
+    </row>
+    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1188" s="2"/>
+    </row>
+    <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1189" s="2"/>
+    </row>
+    <row r="1190" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1190" s="2"/>
+    </row>
+    <row r="1191" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1191" s="2"/>
+    </row>
+    <row r="1192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1192" s="2"/>
+    </row>
+    <row r="1193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1193" s="2"/>
+    </row>
+    <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1194" s="2"/>
+    </row>
+    <row r="1195" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1195" s="2"/>
+    </row>
+    <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1196" s="2"/>
+    </row>
+    <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1197" s="2"/>
+    </row>
+    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1198" s="2"/>
+    </row>
+    <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1199" s="2"/>
+    </row>
+    <row r="1200" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1200" s="2"/>
+    </row>
+    <row r="1201" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1201" s="2"/>
+    </row>
+    <row r="1202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1202" s="2"/>
+    </row>
+    <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1203" s="2"/>
+    </row>
+    <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1204" s="2"/>
+    </row>
+    <row r="1205" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1205" s="2"/>
+    </row>
+    <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1206" s="2"/>
+    </row>
+    <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1207" s="2"/>
+    </row>
+    <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1208" s="2"/>
+    </row>
+    <row r="1209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1209" s="2"/>
+    </row>
+    <row r="1210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1210" s="2"/>
+    </row>
+    <row r="1211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1211" s="2"/>
+    </row>
+    <row r="1212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1212" s="2"/>
+    </row>
+    <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1213" s="2"/>
+    </row>
+    <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1214" s="2"/>
+    </row>
+    <row r="1215" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1215" s="2"/>
+    </row>
+    <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1216" s="2"/>
+    </row>
+    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1217" s="2"/>
+    </row>
+    <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1218" s="2"/>
+    </row>
+    <row r="1219" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1219" s="2"/>
+    </row>
+    <row r="1220" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1220" s="2"/>
+    </row>
+    <row r="1221" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1221" s="2"/>
+    </row>
+    <row r="1222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1222" s="2"/>
+    </row>
+    <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1223" s="2"/>
+    </row>
+    <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1224" s="2"/>
+    </row>
+    <row r="1225" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1225" s="2"/>
+    </row>
+    <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1226" s="2"/>
+    </row>
+    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1227" s="2"/>
+    </row>
+    <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1228" s="2"/>
+    </row>
+    <row r="1229" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1229" s="2"/>
+    </row>
+    <row r="1230" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1230" s="2"/>
+    </row>
+    <row r="1231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1231" s="2"/>
+    </row>
+    <row r="1232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1232" s="2"/>
+    </row>
+    <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1233" s="2"/>
+    </row>
+    <row r="1234" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1234" s="2"/>
+    </row>
+    <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1235" s="2"/>
+    </row>
+    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1236" s="2"/>
+    </row>
+    <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1237" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
+++ b/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đại học\Năm3\Nhập môn phát triển game\Super_Mario_Bros3\Super_Mario_Bros3\SpacePartioning\Map1-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3A881B-ED6B-4B33-A77D-7F0BA854A7A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF1508-9931-4EEF-B02F-810AE3C3A6B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB204E66-514B-4525-88A2-E8E705752E77}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FE060-132C-400E-8146-ED86422B7A61}">
   <dimension ref="F1:M1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="M243" sqref="M243:M1237"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="O202" sqref="O202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:N71" si="0">L8-2</f>
+        <f t="shared" ref="M8:M71" si="0">L8-2</f>
         <v>2</v>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" ref="M72:N135" si="2">L72-2</f>
+        <f t="shared" ref="M72:M135" si="2">L72-2</f>
         <v>48</v>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
         <v>86</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" ref="M136:N190" si="4">L136-2</f>
+        <f t="shared" ref="M136:M190" si="4">L136-2</f>
         <v>84</v>
       </c>
     </row>
@@ -3966,22 +3966,23 @@
     </row>
     <row r="201" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F201">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G201">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="H201">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I201">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L201">
-        <v>128</v>
+        <f>L202+1</f>
+        <v>129</v>
       </c>
       <c r="M201" s="1">
         <v>124</v>
@@ -3989,26 +3990,25 @@
     </row>
     <row r="202" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F202">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G202">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="H202">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I202">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L202">
-        <f t="shared" ref="L202:L239" si="6">L201+1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" ref="M200:N239" si="7">M201+1</f>
+        <f t="shared" ref="M202:M239" si="6">M201+1</f>
         <v>125</v>
       </c>
     </row>
@@ -4115,11 +4115,11 @@
         <v>1</v>
       </c>
       <c r="L214">
+        <f t="shared" ref="L202:L239" si="7">L213+1</f>
+        <v>133</v>
+      </c>
+      <c r="M214" s="1">
         <f t="shared" si="6"/>
-        <v>133</v>
-      </c>
-      <c r="M214" s="1">
-        <f t="shared" si="7"/>
         <v>129</v>
       </c>
     </row>
@@ -4224,11 +4224,11 @@
         <v>2</v>
       </c>
       <c r="L222">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+      <c r="M222" s="1">
         <f t="shared" si="6"/>
-        <v>137</v>
-      </c>
-      <c r="M222" s="1">
-        <f t="shared" si="7"/>
         <v>133</v>
       </c>
     </row>
@@ -4249,11 +4249,11 @@
         <v>2</v>
       </c>
       <c r="L223">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="M223" s="1">
         <f t="shared" si="6"/>
-        <v>138</v>
-      </c>
-      <c r="M223" s="1">
-        <f t="shared" si="7"/>
         <v>134</v>
       </c>
     </row>
@@ -4274,11 +4274,11 @@
         <v>2</v>
       </c>
       <c r="L224">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="M224" s="1">
         <f t="shared" si="6"/>
-        <v>139</v>
-      </c>
-      <c r="M224" s="1">
-        <f t="shared" si="7"/>
         <v>135</v>
       </c>
     </row>
@@ -4299,11 +4299,11 @@
         <v>2</v>
       </c>
       <c r="L225">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="M225" s="1">
         <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="M225" s="1">
-        <f t="shared" si="7"/>
         <v>136</v>
       </c>
     </row>
@@ -4324,11 +4324,11 @@
         <v>2</v>
       </c>
       <c r="L226">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="M226" s="1">
         <f t="shared" si="6"/>
-        <v>141</v>
-      </c>
-      <c r="M226" s="1">
-        <f t="shared" si="7"/>
         <v>137</v>
       </c>
     </row>
@@ -4349,11 +4349,11 @@
         <v>2</v>
       </c>
       <c r="L227">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="M227" s="1">
         <f t="shared" si="6"/>
-        <v>142</v>
-      </c>
-      <c r="M227" s="1">
-        <f t="shared" si="7"/>
         <v>138</v>
       </c>
     </row>
@@ -4374,11 +4374,11 @@
         <v>2</v>
       </c>
       <c r="L228">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="M228" s="1">
         <f t="shared" si="6"/>
-        <v>143</v>
-      </c>
-      <c r="M228" s="1">
-        <f t="shared" si="7"/>
         <v>139</v>
       </c>
     </row>
@@ -4399,11 +4399,11 @@
         <v>2</v>
       </c>
       <c r="L229">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="M229" s="1">
         <f t="shared" si="6"/>
-        <v>144</v>
-      </c>
-      <c r="M229" s="1">
-        <f t="shared" si="7"/>
         <v>140</v>
       </c>
     </row>
@@ -4424,11 +4424,11 @@
         <v>2</v>
       </c>
       <c r="L230">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="M230" s="1">
         <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-      <c r="M230" s="1">
-        <f t="shared" si="7"/>
         <v>141</v>
       </c>
     </row>
@@ -4449,11 +4449,11 @@
         <v>2</v>
       </c>
       <c r="L231">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="M231" s="1">
         <f t="shared" si="6"/>
-        <v>146</v>
-      </c>
-      <c r="M231" s="1">
-        <f t="shared" si="7"/>
         <v>142</v>
       </c>
     </row>
@@ -4474,11 +4474,11 @@
         <v>2</v>
       </c>
       <c r="L232">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="M232" s="1">
         <f t="shared" si="6"/>
-        <v>147</v>
-      </c>
-      <c r="M232" s="1">
-        <f t="shared" si="7"/>
         <v>143</v>
       </c>
     </row>
@@ -4527,11 +4527,11 @@
         <v>2</v>
       </c>
       <c r="L235">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="M235" s="1">
         <f t="shared" si="6"/>
-        <v>149</v>
-      </c>
-      <c r="M235" s="1">
-        <f t="shared" si="7"/>
         <v>145</v>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         <v>2</v>
       </c>
       <c r="L236">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="M236" s="1">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="M236" s="1">
-        <f t="shared" si="7"/>
         <v>146</v>
       </c>
     </row>
@@ -4600,11 +4600,11 @@
         <v>2</v>
       </c>
       <c r="L239">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="M239" s="1">
         <f t="shared" si="6"/>
-        <v>152</v>
-      </c>
-      <c r="M239" s="1">
-        <f t="shared" si="7"/>
         <v>148</v>
       </c>
     </row>

--- a/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
+++ b/Super_Mario_Bros3/SpacePartioning/Map1-1/ObjectID_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đại học\Năm3\Nhập môn phát triển game\Super_Mario_Bros3\Super_Mario_Bros3\SpacePartioning\Map1-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF1508-9931-4EEF-B02F-810AE3C3A6B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B09D0-6CCE-43FF-82FA-D7A99E53DD26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB204E66-514B-4525-88A2-E8E705752E77}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t># ---- MARIO---------------</t>
   </si>
@@ -190,7 +190,13 @@
     <t>#PARA KOOPA</t>
   </si>
   <si>
-    <t>object-id</t>
+    <t>object id</t>
+  </si>
+  <si>
+    <t>cellX</t>
+  </si>
+  <si>
+    <t>cellY</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +232,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -239,15 +257,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,24 +581,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FE060-132C-400E-8146-ED86422B7A61}">
-  <dimension ref="F1:M1237"/>
+  <dimension ref="F1:P414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="O202" sqref="O202"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="N236" sqref="N236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="8.796875" style="3"/>
+    <col min="16" max="16" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>0</v>
       </c>
@@ -595,26 +618,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
@@ -640,8 +677,20 @@
         <f>L7-2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <f>INT(G7/155)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f>INT(H7/155)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>M7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>5</v>
       </c>
@@ -668,8 +717,20 @@
         <f t="shared" ref="M8:M71" si="0">L8-2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <f t="shared" ref="N8:N71" si="1">INT(G8/155)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" ref="O8:O71" si="2">INT(H8/155)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" ref="P8:P71" si="3">M8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>5</v>
       </c>
@@ -689,15 +750,27 @@
         <v>417</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L72" si="1">L8+1</f>
+        <f t="shared" ref="L9:L72" si="4">L8+1</f>
         <v>5</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>5</v>
       </c>
@@ -717,15 +790,31 @@
         <v>433</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>5</v>
       </c>
@@ -751,8 +840,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>5</v>
       </c>
@@ -772,15 +873,27 @@
         <v>434</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>5</v>
       </c>
@@ -800,15 +913,27 @@
         <v>433</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>5</v>
       </c>
@@ -828,15 +953,31 @@
         <v>434</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>5</v>
       </c>
@@ -862,13 +1003,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>5</v>
       </c>
@@ -894,8 +1049,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>5</v>
       </c>
@@ -915,20 +1082,34 @@
         <v>193</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>5</v>
       </c>
@@ -954,14 +1135,28 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F23" t="e" cm="1">
         <f t="array" ref="F23">---brick platform</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>5</v>
       </c>
@@ -987,8 +1182,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>5</v>
       </c>
@@ -1008,15 +1215,27 @@
         <v>401</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>5</v>
       </c>
@@ -1036,15 +1255,27 @@
         <v>385</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>5</v>
       </c>
@@ -1064,15 +1295,27 @@
         <v>417</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>5</v>
       </c>
@@ -1092,15 +1335,27 @@
         <v>417</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>5</v>
       </c>
@@ -1120,20 +1375,38 @@
         <v>417</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>5</v>
       </c>
@@ -1159,8 +1432,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>5</v>
       </c>
@@ -1180,20 +1465,38 @@
         <v>418</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>5</v>
       </c>
@@ -1219,8 +1522,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>5</v>
       </c>
@@ -1246,13 +1561,27 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>5</v>
       </c>
@@ -1278,13 +1607,31 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="4"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>5</v>
       </c>
@@ -1310,8 +1657,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>5</v>
       </c>
@@ -1331,15 +1690,27 @@
         <v>340</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>5</v>
       </c>
@@ -1359,15 +1730,27 @@
         <v>371</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>5</v>
       </c>
@@ -1387,15 +1770,27 @@
         <v>339</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>5</v>
       </c>
@@ -1415,15 +1810,27 @@
         <v>307</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>5</v>
       </c>
@@ -1443,15 +1850,27 @@
         <v>387</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>5</v>
       </c>
@@ -1471,15 +1890,27 @@
         <v>387</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>5</v>
       </c>
@@ -1499,15 +1930,27 @@
         <v>355</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>5</v>
       </c>
@@ -1527,15 +1970,27 @@
         <v>323</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>5</v>
       </c>
@@ -1555,15 +2010,27 @@
         <v>371</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>5</v>
       </c>
@@ -1583,20 +2050,34 @@
         <v>275</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="4"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>5</v>
       </c>
@@ -1622,8 +2103,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>5</v>
       </c>
@@ -1643,15 +2136,31 @@
         <v>383</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>5</v>
       </c>
@@ -1677,8 +2186,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>5</v>
       </c>
@@ -1698,15 +2219,31 @@
         <v>387</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N59" s="4"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>5</v>
       </c>
@@ -1732,13 +2269,31 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N61" s="4"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="4"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>5</v>
       </c>
@@ -1764,8 +2319,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>5</v>
       </c>
@@ -1785,15 +2352,31 @@
         <v>659</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N65" s="4"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>5</v>
       </c>
@@ -1819,8 +2402,20 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>5</v>
       </c>
@@ -1840,15 +2435,27 @@
         <v>640</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>5</v>
       </c>
@@ -1868,15 +2475,27 @@
         <v>640</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>5</v>
       </c>
@@ -1896,15 +2515,27 @@
         <v>640</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>5</v>
       </c>
@@ -1924,15 +2555,27 @@
         <v>640</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>5</v>
       </c>
@@ -1952,15 +2595,27 @@
         <v>640</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P71" s="6">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>5</v>
       </c>
@@ -1980,15 +2635,27 @@
         <v>528</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" ref="M72:M135" si="2">L72-2</f>
+        <f t="shared" ref="M72:M135" si="5">L72-2</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4">
+        <f t="shared" ref="N72:N135" si="6">INT(G72/155)</f>
+        <v>16</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" ref="O72:O135" si="7">INT(H72/155)</f>
+        <v>3</v>
+      </c>
+      <c r="P72" s="6">
+        <f t="shared" ref="P72:P135" si="8">M72</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>5</v>
       </c>
@@ -2008,15 +2675,31 @@
         <v>557</v>
       </c>
       <c r="L73">
-        <f t="shared" ref="L73:L136" si="3">L72+1</f>
+        <f t="shared" ref="L73:L136" si="9">L72+1</f>
         <v>51</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P73" s="6">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N74" s="4"/>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>5</v>
       </c>
@@ -2039,11 +2722,23 @@
         <v>52</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="4">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>5</v>
       </c>
@@ -2063,20 +2758,38 @@
         <v>511</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P76" s="6">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N77" s="4"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="4"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>5</v>
       </c>
@@ -2099,16 +2812,34 @@
         <v>54</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P79" s="6">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N80" s="4"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="4"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>5</v>
       </c>
@@ -2131,16 +2862,46 @@
         <v>55</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="4">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N84" s="4"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N85" s="4"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N86" s="4"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="4"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F88">
         <v>8</v>
       </c>
@@ -2157,16 +2918,42 @@
         <v>56</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P88" s="6">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N89" s="4"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N90" s="4"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N91" s="4"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="4"/>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>7</v>
       </c>
@@ -2183,11 +2970,23 @@
         <v>57</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P93" s="6">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>7</v>
       </c>
@@ -2201,28 +3000,48 @@
         <v>7</v>
       </c>
       <c r="L94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P94" s="6">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N95" s="4"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="4"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="4"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F98">
         <v>10</v>
       </c>
@@ -2239,11 +3058,23 @@
         <v>59</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O98" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P98" s="6">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F99">
         <v>10</v>
       </c>
@@ -2257,15 +3088,27 @@
         <v>22</v>
       </c>
       <c r="L99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O99" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P99" s="6">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F100">
         <v>10</v>
       </c>
@@ -2279,15 +3122,27 @@
         <v>22</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P100" s="6">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F101">
         <v>10</v>
       </c>
@@ -2301,15 +3156,27 @@
         <v>22</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P101" s="6">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F102">
         <v>10</v>
       </c>
@@ -2323,20 +3190,38 @@
         <v>22</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O102" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P102" s="6">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N103" s="4"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="4"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F105">
         <v>11</v>
       </c>
@@ -2356,11 +3241,23 @@
         <v>64</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O105" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P105" s="6">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F106">
         <v>11</v>
       </c>
@@ -2377,15 +3274,27 @@
         <v>1</v>
       </c>
       <c r="L106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O106" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P106" s="6">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F107">
         <v>11</v>
       </c>
@@ -2402,20 +3311,38 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O107" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P107" s="6">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N108" s="4"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="4"/>
+      <c r="O109" s="5"/>
+    </row>
+    <row r="110" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F110">
         <v>10</v>
       </c>
@@ -2432,11 +3359,23 @@
         <v>67</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O110" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P110" s="6">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F111">
         <v>10</v>
       </c>
@@ -2450,15 +3389,27 @@
         <v>22</v>
       </c>
       <c r="L111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O111" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P111" s="6">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F112">
         <v>10</v>
       </c>
@@ -2472,20 +3423,38 @@
         <v>22</v>
       </c>
       <c r="L112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O112" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P112" s="6">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N113" s="4"/>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="4"/>
+      <c r="O114" s="5"/>
+    </row>
+    <row r="115" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F115">
         <v>6</v>
       </c>
@@ -2505,11 +3474,23 @@
         <v>70</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="116" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P115" s="6">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F116">
         <v>6</v>
       </c>
@@ -2526,15 +3507,27 @@
         <v>1</v>
       </c>
       <c r="L116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O116" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P116" s="6">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F117">
         <v>6</v>
       </c>
@@ -2551,15 +3544,27 @@
         <v>1</v>
       </c>
       <c r="L117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="118" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O117" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P117" s="6">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F118">
         <v>6</v>
       </c>
@@ -2576,15 +3581,27 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="119" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O118" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P118" s="6">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F119">
         <v>6</v>
       </c>
@@ -2601,23 +3618,53 @@
         <v>1</v>
       </c>
       <c r="L119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="124" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O119" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P119" s="6">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N120" s="4"/>
+      <c r="O120" s="5"/>
+    </row>
+    <row r="121" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N121" s="4"/>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N122" s="4"/>
+      <c r="O122" s="5"/>
+    </row>
+    <row r="123" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N123" s="4"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="4"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F125">
         <v>9</v>
       </c>
@@ -2637,11 +3684,23 @@
         <v>75</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="126" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O125" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P125" s="6">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F126">
         <v>9</v>
       </c>
@@ -2658,15 +3717,27 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="127" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O126" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P126" s="6">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F127">
         <v>9</v>
       </c>
@@ -2683,15 +3754,27 @@
         <v>1</v>
       </c>
       <c r="L127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="128" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O127" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P127" s="6">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F128">
         <v>9</v>
       </c>
@@ -2708,15 +3791,27 @@
         <v>1</v>
       </c>
       <c r="L128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="129" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O128" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P128" s="6">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F129">
         <v>9</v>
       </c>
@@ -2733,15 +3828,27 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="4">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O129" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P129" s="6">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F130">
         <v>9</v>
       </c>
@@ -2758,15 +3865,27 @@
         <v>1</v>
       </c>
       <c r="L130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="131" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="4">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O130" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P130" s="6">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F131">
         <v>9</v>
       </c>
@@ -2783,15 +3902,27 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="132" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="4">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O131" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P131" s="6">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F132">
         <v>9</v>
       </c>
@@ -2808,15 +3939,27 @@
         <v>1</v>
       </c>
       <c r="L132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O132" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P132" s="6">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F133">
         <v>9</v>
       </c>
@@ -2833,15 +3976,27 @@
         <v>1</v>
       </c>
       <c r="L133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="134" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O133" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P133" s="6">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F134">
         <v>9</v>
       </c>
@@ -2858,15 +4013,27 @@
         <v>1</v>
       </c>
       <c r="L134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="135" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O134" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P134" s="6">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F135">
         <v>9</v>
       </c>
@@ -2883,15 +4050,27 @@
         <v>1</v>
       </c>
       <c r="L135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="136" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="4">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O135" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P135" s="6">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F136">
         <v>9</v>
       </c>
@@ -2908,15 +4087,27 @@
         <v>1</v>
       </c>
       <c r="L136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" ref="M136:M190" si="4">L136-2</f>
+        <f t="shared" ref="M136:M190" si="10">L136-2</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="137" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="4">
+        <f t="shared" ref="N136:N199" si="11">INT(G136/155)</f>
+        <v>13</v>
+      </c>
+      <c r="O136" s="5">
+        <f t="shared" ref="O136:O190" si="12">INT(H136/155)</f>
+        <v>2</v>
+      </c>
+      <c r="P136" s="6">
+        <f t="shared" ref="P136:P199" si="13">M136</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F137">
         <v>9</v>
       </c>
@@ -2933,15 +4124,27 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <f t="shared" ref="L137:L199" si="5">L136+1</f>
+        <f t="shared" ref="L137:L199" si="14">L136+1</f>
         <v>87</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="4">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O137" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P137" s="6">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F138">
         <v>9</v>
       </c>
@@ -2958,15 +4161,27 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="139" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="4">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O138" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P138" s="6">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F139">
         <v>9</v>
       </c>
@@ -2983,15 +4198,27 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="140" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O139" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P139" s="6">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F140">
         <v>9</v>
       </c>
@@ -3008,15 +4235,31 @@
         <v>2</v>
       </c>
       <c r="L140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="142" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O140" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P140" s="6">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N141" s="4"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F142">
         <v>9</v>
       </c>
@@ -3036,11 +4279,23 @@
         <v>91</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="143" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O142" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P142" s="6">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F143">
         <v>9</v>
       </c>
@@ -3057,15 +4312,27 @@
         <v>1</v>
       </c>
       <c r="L143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="144" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O143" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P143" s="6">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F144">
         <v>9</v>
       </c>
@@ -3082,25 +4349,45 @@
         <v>1</v>
       </c>
       <c r="L144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="146" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O144" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P144" s="6">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N145" s="4"/>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="146" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="4"/>
+      <c r="O146" s="5"/>
+    </row>
+    <row r="147" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="4"/>
+      <c r="O147" s="5"/>
+    </row>
+    <row r="148" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F148">
         <v>11</v>
       </c>
@@ -3120,11 +4407,23 @@
         <v>94</v>
       </c>
       <c r="M148" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="149" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O148" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="6">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F149">
         <v>10</v>
       </c>
@@ -3141,20 +4440,38 @@
         <v>3</v>
       </c>
       <c r="L149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="M149" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="151" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O149" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="6">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N150" s="4"/>
+      <c r="O150" s="5"/>
+    </row>
+    <row r="151" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="4"/>
+      <c r="O151" s="5"/>
+    </row>
+    <row r="152" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F152">
         <v>2</v>
       </c>
@@ -3174,11 +4491,23 @@
         <v>96</v>
       </c>
       <c r="M152" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="153" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O152" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P152" s="6">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F153">
         <v>2</v>
       </c>
@@ -3195,15 +4524,31 @@
         <v>1</v>
       </c>
       <c r="L153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="155" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="O153" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P153" s="6">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N154" s="4"/>
+      <c r="O154" s="5"/>
+    </row>
+    <row r="155" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F155">
         <v>2</v>
       </c>
@@ -3223,11 +4568,23 @@
         <v>98</v>
       </c>
       <c r="M155" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="156" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O155" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P155" s="6">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F156">
         <v>2</v>
       </c>
@@ -3244,20 +4601,38 @@
         <v>1</v>
       </c>
       <c r="L156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="M156" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="158" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O156" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P156" s="6">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N157" s="4"/>
+      <c r="O157" s="5"/>
+    </row>
+    <row r="158" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N158" s="4"/>
+      <c r="O158" s="5"/>
+    </row>
+    <row r="159" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F159">
         <v>2</v>
       </c>
@@ -3277,16 +4652,30 @@
         <v>100</v>
       </c>
       <c r="M159" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="160" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N159" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="O159" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P159" s="6">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="161" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N160" s="4"/>
+      <c r="O160" s="5"/>
+    </row>
+    <row r="161" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
         <v>26</v>
       </c>
@@ -3302,8 +4691,10 @@
       <c r="K161" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="162" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N161" s="4"/>
+      <c r="O161" s="5"/>
+    </row>
+    <row r="162" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F162">
         <v>6</v>
       </c>
@@ -3323,11 +4714,23 @@
         <v>101</v>
       </c>
       <c r="M162" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="163" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N162" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="O162" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P162" s="6">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F163">
         <v>6</v>
       </c>
@@ -3344,15 +4747,27 @@
         <v>2</v>
       </c>
       <c r="L163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="M163" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="164" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O163" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P163" s="6">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F164">
         <v>6</v>
       </c>
@@ -3369,15 +4784,31 @@
         <v>2</v>
       </c>
       <c r="L164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
       <c r="M164" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="166" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O164" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P164" s="6">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N165" s="4"/>
+      <c r="O165" s="5"/>
+    </row>
+    <row r="166" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F166">
         <v>6</v>
       </c>
@@ -3397,11 +4828,23 @@
         <v>104</v>
       </c>
       <c r="M166" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O166" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P166" s="6">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F167">
         <v>6</v>
       </c>
@@ -3418,15 +4861,31 @@
         <v>2</v>
       </c>
       <c r="L167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="M167" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O167" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P167" s="6">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N168" s="4"/>
+      <c r="O168" s="5"/>
+    </row>
+    <row r="169" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F169">
         <v>6</v>
       </c>
@@ -3446,11 +4905,23 @@
         <v>106</v>
       </c>
       <c r="M169" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O169" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="6">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F170">
         <v>6</v>
       </c>
@@ -3467,15 +4938,27 @@
         <v>2</v>
       </c>
       <c r="L170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>107</v>
       </c>
       <c r="M170" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O170" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P170" s="6">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F171">
         <v>6</v>
       </c>
@@ -3492,15 +4975,31 @@
         <v>2</v>
       </c>
       <c r="L171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
       <c r="M171" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O171" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P171" s="6">
+        <f t="shared" si="13"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N172" s="4"/>
+      <c r="O172" s="5"/>
+    </row>
+    <row r="173" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F173">
         <v>6</v>
       </c>
@@ -3520,11 +5019,23 @@
         <v>109</v>
       </c>
       <c r="M173" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="174" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O173" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P173" s="6">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F174">
         <v>6</v>
       </c>
@@ -3541,15 +5052,31 @@
         <v>2</v>
       </c>
       <c r="L174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="M174" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O174" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P174" s="6">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="175" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N175" s="4"/>
+      <c r="O175" s="5"/>
+    </row>
+    <row r="176" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F176">
         <v>6</v>
       </c>
@@ -3569,11 +5096,23 @@
         <v>111</v>
       </c>
       <c r="M176" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O176" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P176" s="6">
+        <f t="shared" si="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F177">
         <v>6</v>
       </c>
@@ -3590,15 +5129,27 @@
         <v>2</v>
       </c>
       <c r="L177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="M177" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="178" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O177" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P177" s="6">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F178">
         <v>6</v>
       </c>
@@ -3615,15 +5166,27 @@
         <v>2</v>
       </c>
       <c r="L178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>113</v>
       </c>
       <c r="M178" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="179" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N178" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O178" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P178" s="6">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F179">
         <v>6</v>
       </c>
@@ -3640,15 +5203,31 @@
         <v>2</v>
       </c>
       <c r="L179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>114</v>
       </c>
       <c r="M179" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N179" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O179" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P179" s="6">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N180" s="4"/>
+      <c r="O180" s="5"/>
+    </row>
+    <row r="181" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F181">
         <v>6</v>
       </c>
@@ -3668,11 +5247,23 @@
         <v>115</v>
       </c>
       <c r="M181" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="182" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N181" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O181" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P181" s="6">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F182">
         <v>6</v>
       </c>
@@ -3689,15 +5280,27 @@
         <v>2</v>
       </c>
       <c r="L182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>116</v>
       </c>
       <c r="M182" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="183" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N182" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O182" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P182" s="6">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F183">
         <v>6</v>
       </c>
@@ -3714,15 +5317,27 @@
         <v>2</v>
       </c>
       <c r="L183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="M183" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="184" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N183" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O183" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P183" s="6">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F184">
         <v>6</v>
       </c>
@@ -3739,15 +5354,31 @@
         <v>2</v>
       </c>
       <c r="L184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="M184" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N184" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O184" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P184" s="6">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N185" s="4"/>
+      <c r="O185" s="5"/>
+    </row>
+    <row r="186" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F186">
         <v>6</v>
       </c>
@@ -3767,11 +5398,23 @@
         <v>119</v>
       </c>
       <c r="M186" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="187" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N186" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="O186" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P186" s="6">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="187" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F187">
         <v>6</v>
       </c>
@@ -3788,15 +5431,27 @@
         <v>2</v>
       </c>
       <c r="L187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="M187" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="188" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N187" s="4">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O187" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P187" s="6">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F188">
         <v>6</v>
       </c>
@@ -3813,15 +5468,27 @@
         <v>2</v>
       </c>
       <c r="L188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="189" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N188" s="4">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O188" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P188" s="6">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F189">
         <v>6</v>
       </c>
@@ -3838,15 +5505,27 @@
         <v>2</v>
       </c>
       <c r="L189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
       <c r="M189" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="190" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N189" s="4">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O189" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P189" s="6">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F190">
         <v>6</v>
       </c>
@@ -3863,43 +5542,71 @@
         <v>2</v>
       </c>
       <c r="L190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>123</v>
       </c>
       <c r="M190" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-    </row>
-    <row r="193" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-    </row>
-    <row r="195" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N190" s="4">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O190" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P190" s="6">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N191" s="4"/>
+      <c r="O191" s="5"/>
+    </row>
+    <row r="192" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="5"/>
+    </row>
+    <row r="193" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="5"/>
+    </row>
+    <row r="194" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N194" s="4"/>
+      <c r="O194" s="5"/>
+    </row>
+    <row r="195" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="196" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N195" s="4"/>
+      <c r="O195" s="5"/>
+    </row>
+    <row r="196" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="197" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N196" s="4"/>
+      <c r="O196" s="5"/>
+    </row>
+    <row r="197" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
         <v>33</v>
       </c>
@@ -3915,8 +5622,10 @@
       <c r="J197" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="198" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N197" s="4"/>
+      <c r="O197" s="5"/>
+    </row>
+    <row r="198" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F198">
         <v>12</v>
       </c>
@@ -3938,8 +5647,20 @@
       <c r="M198" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="199" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N198" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O198" s="5">
+        <f t="shared" ref="O198:O239" si="15">INT(H198/155)</f>
+        <v>2</v>
+      </c>
+      <c r="P198" s="6">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F199">
         <v>4</v>
       </c>
@@ -3956,15 +5677,31 @@
         <v>2</v>
       </c>
       <c r="L199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>127</v>
       </c>
       <c r="M199" s="1">
         <f>M198+1</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="201" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N199" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O199" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P199" s="6">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N200" s="4"/>
+      <c r="O200" s="5"/>
+    </row>
+    <row r="201" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F201">
         <v>12</v>
       </c>
@@ -3987,8 +5724,20 @@
       <c r="M201" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="202" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N201" s="4">
+        <f t="shared" ref="N201:N239" si="16">INT(G201/155)</f>
+        <v>12</v>
+      </c>
+      <c r="O201" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P201" s="6">
+        <f t="shared" ref="P201:P239" si="17">M201</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="202" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F202">
         <v>4</v>
       </c>
@@ -4008,16 +5757,38 @@
         <v>128</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" ref="M202:M239" si="6">M201+1</f>
+        <f t="shared" ref="M202:M239" si="18">M201+1</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="205" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N202" s="4">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O202" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P202" s="6">
+        <f t="shared" si="17"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="203" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N203" s="4"/>
+      <c r="O203" s="5"/>
+    </row>
+    <row r="204" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N204" s="4"/>
+      <c r="O204" s="5"/>
+    </row>
+    <row r="205" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="206" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N205" s="4"/>
+      <c r="O205" s="5"/>
+    </row>
+    <row r="206" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F206">
         <v>13</v>
       </c>
@@ -4039,13 +5810,31 @@
       <c r="M206" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="208" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N206" s="4">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="O206" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P206" s="6">
+        <f t="shared" si="17"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N207" s="4"/>
+      <c r="O207" s="5"/>
+    </row>
+    <row r="208" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="209" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N208" s="4"/>
+      <c r="O208" s="5"/>
+    </row>
+    <row r="209" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F209">
         <v>14</v>
       </c>
@@ -4064,18 +5853,38 @@
       <c r="M209" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="211" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N209" s="4">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="O209" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P209" s="6">
+        <f t="shared" si="17"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N210" s="4"/>
+      <c r="O210" s="5"/>
+    </row>
+    <row r="211" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="212" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N211" s="4"/>
+      <c r="O211" s="5"/>
+    </row>
+    <row r="212" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="213" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N212" s="4"/>
+      <c r="O212" s="5"/>
+    </row>
+    <row r="213" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F213">
         <v>3</v>
       </c>
@@ -4097,8 +5906,20 @@
       <c r="M213" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="214" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N213" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O213" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P213" s="6">
+        <f t="shared" si="17"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="214" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F214">
         <v>3</v>
       </c>
@@ -4115,20 +5936,38 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <f t="shared" ref="L202:L239" si="7">L213+1</f>
+        <f t="shared" ref="L214:L239" si="19">L213+1</f>
         <v>133</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="216" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N214" s="4">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="O214" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P214" s="6">
+        <f t="shared" si="17"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="215" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N215" s="4"/>
+      <c r="O215" s="5"/>
+    </row>
+    <row r="216" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="217" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N216" s="4"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F217">
         <v>4</v>
       </c>
@@ -4150,13 +5989,27 @@
       <c r="M217" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="218" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N217" s="4">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="O217" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P217" s="6">
+        <f t="shared" si="17"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="219" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N218" s="4"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F219">
         <v>4</v>
       </c>
@@ -4178,13 +6031,27 @@
       <c r="M219" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="220" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N219" s="4">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="O219" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P219" s="6">
+        <f t="shared" si="17"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="221" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N220" s="4"/>
+      <c r="O220" s="5"/>
+    </row>
+    <row r="221" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F221">
         <v>6</v>
       </c>
@@ -4206,8 +6073,20 @@
       <c r="M221" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="222" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N221" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O221" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P221" s="6">
+        <f t="shared" si="17"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="222" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F222">
         <v>6</v>
       </c>
@@ -4224,15 +6103,27 @@
         <v>2</v>
       </c>
       <c r="L222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>137</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="223" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N222" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O222" s="5">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P222" s="6">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="223" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F223">
         <v>6</v>
       </c>
@@ -4249,15 +6140,27 @@
         <v>2</v>
       </c>
       <c r="L223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>138</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="224" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N223" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O223" s="5">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P223" s="6">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F224">
         <v>6</v>
       </c>
@@ -4274,15 +6177,27 @@
         <v>2</v>
       </c>
       <c r="L224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>139</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="225" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N224" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O224" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P224" s="6">
+        <f t="shared" si="17"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F225">
         <v>6</v>
       </c>
@@ -4299,15 +6214,27 @@
         <v>2</v>
       </c>
       <c r="L225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="226" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N225" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O225" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P225" s="6">
+        <f t="shared" si="17"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F226">
         <v>6</v>
       </c>
@@ -4324,15 +6251,27 @@
         <v>2</v>
       </c>
       <c r="L226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>141</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="227" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N226" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O226" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P226" s="6">
+        <f t="shared" si="17"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F227">
         <v>6</v>
       </c>
@@ -4349,15 +6288,27 @@
         <v>2</v>
       </c>
       <c r="L227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>142</v>
       </c>
       <c r="M227" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="228" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N227" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O227" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P227" s="6">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="228" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F228">
         <v>6</v>
       </c>
@@ -4374,15 +6325,27 @@
         <v>2</v>
       </c>
       <c r="L228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>143</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="229" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N228" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O228" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P228" s="6">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="229" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F229">
         <v>6</v>
       </c>
@@ -4399,15 +6362,27 @@
         <v>2</v>
       </c>
       <c r="L229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="230" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N229" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O229" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P229" s="6">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="230" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F230">
         <v>6</v>
       </c>
@@ -4424,15 +6399,27 @@
         <v>2</v>
       </c>
       <c r="L230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>145</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="231" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N230" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O230" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P230" s="6">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F231">
         <v>6</v>
       </c>
@@ -4449,15 +6436,27 @@
         <v>2</v>
       </c>
       <c r="L231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>146</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="232" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N231" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O231" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P231" s="6">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F232">
         <v>6</v>
       </c>
@@ -4474,20 +6473,34 @@
         <v>2</v>
       </c>
       <c r="L232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>147</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="233" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N232" s="4">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O232" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P232" s="6">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="234" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N233" s="4"/>
+      <c r="O233" s="5"/>
+    </row>
+    <row r="234" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F234">
         <v>3</v>
       </c>
@@ -4509,8 +6522,20 @@
       <c r="M234" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="235" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N234" s="4">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="O234" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P234" s="6">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F235">
         <v>3</v>
       </c>
@@ -4527,15 +6552,27 @@
         <v>2</v>
       </c>
       <c r="L235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>149</v>
       </c>
       <c r="M235" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="236" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N235" s="4">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="O235" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P235" s="6">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="236" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F236">
         <v>3</v>
       </c>
@@ -4552,15 +6589,31 @@
         <v>2</v>
       </c>
       <c r="L236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="M236" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="238" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N236" s="4">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O236" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P236" s="6">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N237" s="4"/>
+      <c r="O237" s="5"/>
+    </row>
+    <row r="238" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F238">
         <v>132</v>
       </c>
@@ -4582,8 +6635,20 @@
       <c r="M238" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="239" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="N238" s="4">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="O238" s="5">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P238" s="6">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F239">
         <v>132</v>
       </c>
@@ -4600,3007 +6665,550 @@
         <v>2</v>
       </c>
       <c r="L239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>152</v>
       </c>
       <c r="M239" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="240" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="M240" s="2"/>
-    </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M241" s="2"/>
-    </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M242" s="2"/>
-    </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M243" s="2"/>
-    </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M244" s="2"/>
-    </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M245" s="2"/>
-    </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M246" s="2"/>
-    </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M247" s="2"/>
-    </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M248" s="2"/>
-    </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M249" s="2"/>
-    </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M250" s="2"/>
-    </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M251" s="2"/>
-    </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M252" s="2"/>
-    </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M253" s="2"/>
-    </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M254" s="2"/>
-    </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M255" s="2"/>
-    </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M256" s="2"/>
-    </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M257" s="2"/>
-    </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M258" s="2"/>
-    </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M259" s="2"/>
-    </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M260" s="2"/>
-    </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M261" s="2"/>
-    </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M262" s="2"/>
-    </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M263" s="2"/>
-    </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M264" s="2"/>
-    </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M265" s="2"/>
-    </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M266" s="2"/>
-    </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M267" s="2"/>
-    </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M268" s="2"/>
-    </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M269" s="2"/>
-    </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M270" s="2"/>
-    </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M271" s="2"/>
-    </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M272" s="2"/>
-    </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M273" s="2"/>
-    </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M274" s="2"/>
-    </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M275" s="2"/>
-    </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M276" s="2"/>
-    </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M277" s="2"/>
-    </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M278" s="2"/>
-    </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M279" s="2"/>
-    </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M280" s="2"/>
-    </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M281" s="2"/>
-    </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M282" s="2"/>
-    </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M283" s="2"/>
-    </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M284" s="2"/>
-    </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M285" s="2"/>
-    </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M286" s="2"/>
-    </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M287" s="2"/>
-    </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M288" s="2"/>
-    </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M289" s="2"/>
-    </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M290" s="2"/>
-    </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M291" s="2"/>
-    </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M292" s="2"/>
-    </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M293" s="2"/>
-    </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M294" s="2"/>
-    </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M295" s="2"/>
-    </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M296" s="2"/>
-    </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M297" s="2"/>
-    </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M298" s="2"/>
-    </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M299" s="2"/>
-    </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M300" s="2"/>
-    </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M301" s="2"/>
-    </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M302" s="2"/>
-    </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M303" s="2"/>
-    </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M304" s="2"/>
-    </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M305" s="2"/>
-    </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M306" s="2"/>
-    </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M307" s="2"/>
-    </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M308" s="2"/>
-    </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M309" s="2"/>
-    </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M310" s="2"/>
-    </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M311" s="2"/>
-    </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M312" s="2"/>
-    </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M313" s="2"/>
-    </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M314" s="2"/>
-    </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M315" s="2"/>
-    </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M316" s="2"/>
-    </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M317" s="2"/>
-    </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M318" s="2"/>
-    </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M319" s="2"/>
-    </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M320" s="2"/>
-    </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M321" s="2"/>
-    </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M322" s="2"/>
-    </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M323" s="2"/>
-    </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M324" s="2"/>
-    </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M325" s="2"/>
-    </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M326" s="2"/>
-    </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M327" s="2"/>
-    </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M328" s="2"/>
-    </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M329" s="2"/>
-    </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M330" s="2"/>
-    </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M331" s="2"/>
-    </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M332" s="2"/>
-    </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M333" s="2"/>
-    </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M334" s="2"/>
-    </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M335" s="2"/>
-    </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M336" s="2"/>
-    </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M337" s="2"/>
-    </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M338" s="2"/>
-    </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M339" s="2"/>
-    </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M340" s="2"/>
-    </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M341" s="2"/>
-    </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M342" s="2"/>
-    </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M343" s="2"/>
-    </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M344" s="2"/>
-    </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M345" s="2"/>
-    </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M346" s="2"/>
-    </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M347" s="2"/>
-    </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M348" s="2"/>
-    </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M349" s="2"/>
-    </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M350" s="2"/>
-    </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M351" s="2"/>
-    </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M352" s="2"/>
-    </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M353" s="2"/>
-    </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M354" s="2"/>
-    </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M355" s="2"/>
-    </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M356" s="2"/>
-    </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M357" s="2"/>
-    </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M358" s="2"/>
-    </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M359" s="2"/>
-    </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M360" s="2"/>
-    </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M361" s="2"/>
-    </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M362" s="2"/>
-    </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M363" s="2"/>
-    </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M364" s="2"/>
-    </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M365" s="2"/>
-    </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M366" s="2"/>
-    </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M367" s="2"/>
-    </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M368" s="2"/>
-    </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M369" s="2"/>
-    </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M370" s="2"/>
-    </row>
-    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M371" s="2"/>
-    </row>
-    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M372" s="2"/>
-    </row>
-    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M373" s="2"/>
-    </row>
-    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M374" s="2"/>
-    </row>
-    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M375" s="2"/>
-    </row>
-    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M376" s="2"/>
-    </row>
-    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M377" s="2"/>
-    </row>
-    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M378" s="2"/>
-    </row>
-    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M379" s="2"/>
-    </row>
-    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M380" s="2"/>
-    </row>
-    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M381" s="2"/>
-    </row>
-    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M382" s="2"/>
-    </row>
-    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M383" s="2"/>
-    </row>
-    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M384" s="2"/>
-    </row>
-    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M385" s="2"/>
-    </row>
-    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M386" s="2"/>
-    </row>
-    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M387" s="2"/>
-    </row>
-    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M388" s="2"/>
-    </row>
-    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M389" s="2"/>
-    </row>
-    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M390" s="2"/>
-    </row>
-    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M391" s="2"/>
-    </row>
-    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M392" s="2"/>
-    </row>
-    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M393" s="2"/>
-    </row>
-    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M394" s="2"/>
-    </row>
-    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M395" s="2"/>
-    </row>
-    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M396" s="2"/>
-    </row>
-    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M397" s="2"/>
-    </row>
-    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M398" s="2"/>
-    </row>
-    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M399" s="2"/>
-    </row>
-    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M400" s="2"/>
-    </row>
-    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M401" s="2"/>
-    </row>
-    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M402" s="2"/>
-    </row>
-    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M403" s="2"/>
-    </row>
-    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M404" s="2"/>
-    </row>
-    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M405" s="2"/>
-    </row>
-    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M406" s="2"/>
-    </row>
-    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M407" s="2"/>
-    </row>
-    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M408" s="2"/>
-    </row>
-    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M409" s="2"/>
-    </row>
-    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M410" s="2"/>
-    </row>
-    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M411" s="2"/>
-    </row>
-    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M412" s="2"/>
-    </row>
-    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M413" s="2"/>
-    </row>
-    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M414" s="2"/>
-    </row>
-    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M415" s="2"/>
-    </row>
-    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M416" s="2"/>
-    </row>
-    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M417" s="2"/>
-    </row>
-    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M418" s="2"/>
-    </row>
-    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M419" s="2"/>
-    </row>
-    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M420" s="2"/>
-    </row>
-    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M421" s="2"/>
-    </row>
-    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M422" s="2"/>
-    </row>
-    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M423" s="2"/>
-    </row>
-    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M424" s="2"/>
-    </row>
-    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M425" s="2"/>
-    </row>
-    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M426" s="2"/>
-    </row>
-    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M427" s="2"/>
-    </row>
-    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M428" s="2"/>
-    </row>
-    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M429" s="2"/>
-    </row>
-    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M430" s="2"/>
-    </row>
-    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M431" s="2"/>
-    </row>
-    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M432" s="2"/>
-    </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M433" s="2"/>
-    </row>
-    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M434" s="2"/>
-    </row>
-    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M435" s="2"/>
-    </row>
-    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M436" s="2"/>
-    </row>
-    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M437" s="2"/>
-    </row>
-    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M438" s="2"/>
-    </row>
-    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M439" s="2"/>
-    </row>
-    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M440" s="2"/>
-    </row>
-    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M441" s="2"/>
-    </row>
-    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M442" s="2"/>
-    </row>
-    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M443" s="2"/>
-    </row>
-    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M444" s="2"/>
-    </row>
-    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M445" s="2"/>
-    </row>
-    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M446" s="2"/>
-    </row>
-    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M447" s="2"/>
-    </row>
-    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M448" s="2"/>
-    </row>
-    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M449" s="2"/>
-    </row>
-    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M450" s="2"/>
-    </row>
-    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M451" s="2"/>
-    </row>
-    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M452" s="2"/>
-    </row>
-    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M453" s="2"/>
-    </row>
-    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M454" s="2"/>
-    </row>
-    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M455" s="2"/>
-    </row>
-    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M456" s="2"/>
-    </row>
-    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M457" s="2"/>
-    </row>
-    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M458" s="2"/>
-    </row>
-    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M459" s="2"/>
-    </row>
-    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M460" s="2"/>
-    </row>
-    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M461" s="2"/>
-    </row>
-    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M462" s="2"/>
-    </row>
-    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M463" s="2"/>
-    </row>
-    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M464" s="2"/>
-    </row>
-    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M465" s="2"/>
-    </row>
-    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M466" s="2"/>
-    </row>
-    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M467" s="2"/>
-    </row>
-    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M468" s="2"/>
-    </row>
-    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M469" s="2"/>
-    </row>
-    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M470" s="2"/>
-    </row>
-    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M471" s="2"/>
-    </row>
-    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M472" s="2"/>
-    </row>
-    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M473" s="2"/>
-    </row>
-    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M474" s="2"/>
-    </row>
-    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M475" s="2"/>
-    </row>
-    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M476" s="2"/>
-    </row>
-    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M477" s="2"/>
-    </row>
-    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M478" s="2"/>
-    </row>
-    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M479" s="2"/>
-    </row>
-    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M480" s="2"/>
-    </row>
-    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M481" s="2"/>
-    </row>
-    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M482" s="2"/>
-    </row>
-    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M483" s="2"/>
-    </row>
-    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M484" s="2"/>
-    </row>
-    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M485" s="2"/>
-    </row>
-    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M486" s="2"/>
-    </row>
-    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M487" s="2"/>
-    </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M488" s="2"/>
-    </row>
-    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M489" s="2"/>
-    </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M490" s="2"/>
-    </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M491" s="2"/>
-    </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M492" s="2"/>
-    </row>
-    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M493" s="2"/>
-    </row>
-    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M494" s="2"/>
-    </row>
-    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M495" s="2"/>
-    </row>
-    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M496" s="2"/>
-    </row>
-    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M497" s="2"/>
-    </row>
-    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M498" s="2"/>
-    </row>
-    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M499" s="2"/>
-    </row>
-    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M500" s="2"/>
-    </row>
-    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M501" s="2"/>
-    </row>
-    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M502" s="2"/>
-    </row>
-    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M503" s="2"/>
-    </row>
-    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M504" s="2"/>
-    </row>
-    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M505" s="2"/>
-    </row>
-    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M506" s="2"/>
-    </row>
-    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M507" s="2"/>
-    </row>
-    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M508" s="2"/>
-    </row>
-    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M509" s="2"/>
-    </row>
-    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M510" s="2"/>
-    </row>
-    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M511" s="2"/>
-    </row>
-    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M512" s="2"/>
-    </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M513" s="2"/>
-    </row>
-    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M514" s="2"/>
-    </row>
-    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M515" s="2"/>
-    </row>
-    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M516" s="2"/>
-    </row>
-    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M517" s="2"/>
-    </row>
-    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M518" s="2"/>
-    </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M519" s="2"/>
-    </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M520" s="2"/>
-    </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M521" s="2"/>
-    </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M522" s="2"/>
-    </row>
-    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M523" s="2"/>
-    </row>
-    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M524" s="2"/>
-    </row>
-    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M525" s="2"/>
-    </row>
-    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M526" s="2"/>
-    </row>
-    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M527" s="2"/>
-    </row>
-    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M528" s="2"/>
-    </row>
-    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M529" s="2"/>
-    </row>
-    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M530" s="2"/>
-    </row>
-    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M531" s="2"/>
-    </row>
-    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M532" s="2"/>
-    </row>
-    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M533" s="2"/>
-    </row>
-    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M534" s="2"/>
-    </row>
-    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M535" s="2"/>
-    </row>
-    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M536" s="2"/>
-    </row>
-    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M537" s="2"/>
-    </row>
-    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M538" s="2"/>
-    </row>
-    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M539" s="2"/>
-    </row>
-    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M540" s="2"/>
-    </row>
-    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M541" s="2"/>
-    </row>
-    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M542" s="2"/>
-    </row>
-    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M543" s="2"/>
-    </row>
-    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M544" s="2"/>
-    </row>
-    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M545" s="2"/>
-    </row>
-    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M546" s="2"/>
-    </row>
-    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M547" s="2"/>
-    </row>
-    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M548" s="2"/>
-    </row>
-    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M549" s="2"/>
-    </row>
-    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M550" s="2"/>
-    </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M551" s="2"/>
-    </row>
-    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M552" s="2"/>
-    </row>
-    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M553" s="2"/>
-    </row>
-    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M554" s="2"/>
-    </row>
-    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M555" s="2"/>
-    </row>
-    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M556" s="2"/>
-    </row>
-    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M557" s="2"/>
-    </row>
-    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M558" s="2"/>
-    </row>
-    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M559" s="2"/>
-    </row>
-    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M560" s="2"/>
-    </row>
-    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M561" s="2"/>
-    </row>
-    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M562" s="2"/>
-    </row>
-    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M563" s="2"/>
-    </row>
-    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M564" s="2"/>
-    </row>
-    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M565" s="2"/>
-    </row>
-    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M566" s="2"/>
-    </row>
-    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M567" s="2"/>
-    </row>
-    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M568" s="2"/>
-    </row>
-    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M569" s="2"/>
-    </row>
-    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M570" s="2"/>
-    </row>
-    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M571" s="2"/>
-    </row>
-    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M572" s="2"/>
-    </row>
-    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M573" s="2"/>
-    </row>
-    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M574" s="2"/>
-    </row>
-    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M575" s="2"/>
-    </row>
-    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M576" s="2"/>
-    </row>
-    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M577" s="2"/>
-    </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M578" s="2"/>
-    </row>
-    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M579" s="2"/>
-    </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M580" s="2"/>
-    </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M581" s="2"/>
-    </row>
-    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M582" s="2"/>
-    </row>
-    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M583" s="2"/>
-    </row>
-    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M584" s="2"/>
-    </row>
-    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M585" s="2"/>
-    </row>
-    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M586" s="2"/>
-    </row>
-    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M587" s="2"/>
-    </row>
-    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M588" s="2"/>
-    </row>
-    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M589" s="2"/>
-    </row>
-    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M590" s="2"/>
-    </row>
-    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M591" s="2"/>
-    </row>
-    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M592" s="2"/>
-    </row>
-    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M593" s="2"/>
-    </row>
-    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M594" s="2"/>
-    </row>
-    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M595" s="2"/>
-    </row>
-    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M596" s="2"/>
-    </row>
-    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M597" s="2"/>
-    </row>
-    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M598" s="2"/>
-    </row>
-    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M599" s="2"/>
-    </row>
-    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M600" s="2"/>
-    </row>
-    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M601" s="2"/>
-    </row>
-    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M602" s="2"/>
-    </row>
-    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M603" s="2"/>
-    </row>
-    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M604" s="2"/>
-    </row>
-    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M605" s="2"/>
-    </row>
-    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M606" s="2"/>
-    </row>
-    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M607" s="2"/>
-    </row>
-    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M608" s="2"/>
-    </row>
-    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M609" s="2"/>
-    </row>
-    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M610" s="2"/>
-    </row>
-    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M611" s="2"/>
-    </row>
-    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M612" s="2"/>
-    </row>
-    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M613" s="2"/>
-    </row>
-    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M614" s="2"/>
-    </row>
-    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M615" s="2"/>
-    </row>
-    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M616" s="2"/>
-    </row>
-    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M617" s="2"/>
-    </row>
-    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M618" s="2"/>
-    </row>
-    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M619" s="2"/>
-    </row>
-    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M620" s="2"/>
-    </row>
-    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M621" s="2"/>
-    </row>
-    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M622" s="2"/>
-    </row>
-    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M623" s="2"/>
-    </row>
-    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M624" s="2"/>
-    </row>
-    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M625" s="2"/>
-    </row>
-    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M626" s="2"/>
-    </row>
-    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M627" s="2"/>
-    </row>
-    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M628" s="2"/>
-    </row>
-    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M629" s="2"/>
-    </row>
-    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M630" s="2"/>
-    </row>
-    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M631" s="2"/>
-    </row>
-    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M632" s="2"/>
-    </row>
-    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M633" s="2"/>
-    </row>
-    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M634" s="2"/>
-    </row>
-    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M635" s="2"/>
-    </row>
-    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M636" s="2"/>
-    </row>
-    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M637" s="2"/>
-    </row>
-    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M638" s="2"/>
-    </row>
-    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M639" s="2"/>
-    </row>
-    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M640" s="2"/>
-    </row>
-    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M641" s="2"/>
-    </row>
-    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M642" s="2"/>
-    </row>
-    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M643" s="2"/>
-    </row>
-    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M644" s="2"/>
-    </row>
-    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M645" s="2"/>
-    </row>
-    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M646" s="2"/>
-    </row>
-    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M647" s="2"/>
-    </row>
-    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M648" s="2"/>
-    </row>
-    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M649" s="2"/>
-    </row>
-    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M650" s="2"/>
-    </row>
-    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M651" s="2"/>
-    </row>
-    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M652" s="2"/>
-    </row>
-    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M653" s="2"/>
-    </row>
-    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M654" s="2"/>
-    </row>
-    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M655" s="2"/>
-    </row>
-    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M656" s="2"/>
-    </row>
-    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M657" s="2"/>
-    </row>
-    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M658" s="2"/>
-    </row>
-    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M659" s="2"/>
-    </row>
-    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M660" s="2"/>
-    </row>
-    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M661" s="2"/>
-    </row>
-    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M662" s="2"/>
-    </row>
-    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M663" s="2"/>
-    </row>
-    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M664" s="2"/>
-    </row>
-    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M665" s="2"/>
-    </row>
-    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M666" s="2"/>
-    </row>
-    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M667" s="2"/>
-    </row>
-    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M668" s="2"/>
-    </row>
-    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M669" s="2"/>
-    </row>
-    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M670" s="2"/>
-    </row>
-    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M671" s="2"/>
-    </row>
-    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M672" s="2"/>
-    </row>
-    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M673" s="2"/>
-    </row>
-    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M674" s="2"/>
-    </row>
-    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M675" s="2"/>
-    </row>
-    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M676" s="2"/>
-    </row>
-    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M677" s="2"/>
-    </row>
-    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M678" s="2"/>
-    </row>
-    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M679" s="2"/>
-    </row>
-    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M680" s="2"/>
-    </row>
-    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M681" s="2"/>
-    </row>
-    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M682" s="2"/>
-    </row>
-    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M683" s="2"/>
-    </row>
-    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M684" s="2"/>
-    </row>
-    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M685" s="2"/>
-    </row>
-    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M686" s="2"/>
-    </row>
-    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M687" s="2"/>
-    </row>
-    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M688" s="2"/>
-    </row>
-    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M689" s="2"/>
-    </row>
-    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M690" s="2"/>
-    </row>
-    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M691" s="2"/>
-    </row>
-    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M692" s="2"/>
-    </row>
-    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M693" s="2"/>
-    </row>
-    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M694" s="2"/>
-    </row>
-    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M695" s="2"/>
-    </row>
-    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M696" s="2"/>
-    </row>
-    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M697" s="2"/>
-    </row>
-    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M698" s="2"/>
-    </row>
-    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M699" s="2"/>
-    </row>
-    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M700" s="2"/>
-    </row>
-    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M701" s="2"/>
-    </row>
-    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M702" s="2"/>
-    </row>
-    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M703" s="2"/>
-    </row>
-    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M704" s="2"/>
-    </row>
-    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M705" s="2"/>
-    </row>
-    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M706" s="2"/>
-    </row>
-    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M707" s="2"/>
-    </row>
-    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M708" s="2"/>
-    </row>
-    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M709" s="2"/>
-    </row>
-    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M710" s="2"/>
-    </row>
-    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M711" s="2"/>
-    </row>
-    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M712" s="2"/>
-    </row>
-    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M713" s="2"/>
-    </row>
-    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M714" s="2"/>
-    </row>
-    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M715" s="2"/>
-    </row>
-    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M716" s="2"/>
-    </row>
-    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M717" s="2"/>
-    </row>
-    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M718" s="2"/>
-    </row>
-    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M719" s="2"/>
-    </row>
-    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M720" s="2"/>
-    </row>
-    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M721" s="2"/>
-    </row>
-    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M722" s="2"/>
-    </row>
-    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M723" s="2"/>
-    </row>
-    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M724" s="2"/>
-    </row>
-    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M725" s="2"/>
-    </row>
-    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M726" s="2"/>
-    </row>
-    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M727" s="2"/>
-    </row>
-    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M728" s="2"/>
-    </row>
-    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M729" s="2"/>
-    </row>
-    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M730" s="2"/>
-    </row>
-    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M731" s="2"/>
-    </row>
-    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M732" s="2"/>
-    </row>
-    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M733" s="2"/>
-    </row>
-    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M734" s="2"/>
-    </row>
-    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M735" s="2"/>
-    </row>
-    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M736" s="2"/>
-    </row>
-    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M737" s="2"/>
-    </row>
-    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M738" s="2"/>
-    </row>
-    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M739" s="2"/>
-    </row>
-    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M740" s="2"/>
-    </row>
-    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M741" s="2"/>
-    </row>
-    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M742" s="2"/>
-    </row>
-    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M743" s="2"/>
-    </row>
-    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M744" s="2"/>
-    </row>
-    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M745" s="2"/>
-    </row>
-    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M746" s="2"/>
-    </row>
-    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M747" s="2"/>
-    </row>
-    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M748" s="2"/>
-    </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M749" s="2"/>
-    </row>
-    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M750" s="2"/>
-    </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M751" s="2"/>
-    </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M752" s="2"/>
-    </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M753" s="2"/>
-    </row>
-    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M754" s="2"/>
-    </row>
-    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M755" s="2"/>
-    </row>
-    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M756" s="2"/>
-    </row>
-    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M757" s="2"/>
-    </row>
-    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M758" s="2"/>
-    </row>
-    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M759" s="2"/>
-    </row>
-    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M760" s="2"/>
-    </row>
-    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M761" s="2"/>
-    </row>
-    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M762" s="2"/>
-    </row>
-    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M763" s="2"/>
-    </row>
-    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M764" s="2"/>
-    </row>
-    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M765" s="2"/>
-    </row>
-    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M766" s="2"/>
-    </row>
-    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M767" s="2"/>
-    </row>
-    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M768" s="2"/>
-    </row>
-    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M769" s="2"/>
-    </row>
-    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M770" s="2"/>
-    </row>
-    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M771" s="2"/>
-    </row>
-    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M772" s="2"/>
-    </row>
-    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M773" s="2"/>
-    </row>
-    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M774" s="2"/>
-    </row>
-    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M775" s="2"/>
-    </row>
-    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M776" s="2"/>
-    </row>
-    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M777" s="2"/>
-    </row>
-    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M778" s="2"/>
-    </row>
-    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M779" s="2"/>
-    </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M780" s="2"/>
-    </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M781" s="2"/>
-    </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M782" s="2"/>
-    </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M783" s="2"/>
-    </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M784" s="2"/>
-    </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M785" s="2"/>
-    </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M786" s="2"/>
-    </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M787" s="2"/>
-    </row>
-    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M788" s="2"/>
-    </row>
-    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M789" s="2"/>
-    </row>
-    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M790" s="2"/>
-    </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M791" s="2"/>
-    </row>
-    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M792" s="2"/>
-    </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M793" s="2"/>
-    </row>
-    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M794" s="2"/>
-    </row>
-    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M795" s="2"/>
-    </row>
-    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M796" s="2"/>
-    </row>
-    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M797" s="2"/>
-    </row>
-    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M798" s="2"/>
-    </row>
-    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M799" s="2"/>
-    </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M800" s="2"/>
-    </row>
-    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M801" s="2"/>
-    </row>
-    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M802" s="2"/>
-    </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M803" s="2"/>
-    </row>
-    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M804" s="2"/>
-    </row>
-    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M805" s="2"/>
-    </row>
-    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M806" s="2"/>
-    </row>
-    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M807" s="2"/>
-    </row>
-    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M808" s="2"/>
-    </row>
-    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M809" s="2"/>
-    </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M810" s="2"/>
-    </row>
-    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M811" s="2"/>
-    </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M812" s="2"/>
-    </row>
-    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M813" s="2"/>
-    </row>
-    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M814" s="2"/>
-    </row>
-    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M815" s="2"/>
-    </row>
-    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M816" s="2"/>
-    </row>
-    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M817" s="2"/>
-    </row>
-    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M818" s="2"/>
-    </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M819" s="2"/>
-    </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M820" s="2"/>
-    </row>
-    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M821" s="2"/>
-    </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M822" s="2"/>
-    </row>
-    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M823" s="2"/>
-    </row>
-    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M824" s="2"/>
-    </row>
-    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M825" s="2"/>
-    </row>
-    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M826" s="2"/>
-    </row>
-    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M827" s="2"/>
-    </row>
-    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M828" s="2"/>
-    </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M829" s="2"/>
-    </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M830" s="2"/>
-    </row>
-    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M831" s="2"/>
-    </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M832" s="2"/>
-    </row>
-    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M833" s="2"/>
-    </row>
-    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M834" s="2"/>
-    </row>
-    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M835" s="2"/>
-    </row>
-    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M836" s="2"/>
-    </row>
-    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M837" s="2"/>
-    </row>
-    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M838" s="2"/>
-    </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M839" s="2"/>
-    </row>
-    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M840" s="2"/>
-    </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M841" s="2"/>
-    </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M842" s="2"/>
-    </row>
-    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M843" s="2"/>
-    </row>
-    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M844" s="2"/>
-    </row>
-    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M845" s="2"/>
-    </row>
-    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M846" s="2"/>
-    </row>
-    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M847" s="2"/>
-    </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M848" s="2"/>
-    </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M849" s="2"/>
-    </row>
-    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M850" s="2"/>
-    </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M851" s="2"/>
-    </row>
-    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M852" s="2"/>
-    </row>
-    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M853" s="2"/>
-    </row>
-    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M854" s="2"/>
-    </row>
-    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M855" s="2"/>
-    </row>
-    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M856" s="2"/>
-    </row>
-    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M857" s="2"/>
-    </row>
-    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M858" s="2"/>
-    </row>
-    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M859" s="2"/>
-    </row>
-    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M860" s="2"/>
-    </row>
-    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M861" s="2"/>
-    </row>
-    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M862" s="2"/>
-    </row>
-    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M863" s="2"/>
-    </row>
-    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M864" s="2"/>
-    </row>
-    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M865" s="2"/>
-    </row>
-    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M866" s="2"/>
-    </row>
-    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M867" s="2"/>
-    </row>
-    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M868" s="2"/>
-    </row>
-    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M869" s="2"/>
-    </row>
-    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M870" s="2"/>
-    </row>
-    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M871" s="2"/>
-    </row>
-    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M872" s="2"/>
-    </row>
-    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M873" s="2"/>
-    </row>
-    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M874" s="2"/>
-    </row>
-    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M875" s="2"/>
-    </row>
-    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M876" s="2"/>
-    </row>
-    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M877" s="2"/>
-    </row>
-    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M878" s="2"/>
-    </row>
-    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M879" s="2"/>
-    </row>
-    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M880" s="2"/>
-    </row>
-    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M881" s="2"/>
-    </row>
-    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M882" s="2"/>
-    </row>
-    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M883" s="2"/>
-    </row>
-    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M884" s="2"/>
-    </row>
-    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M885" s="2"/>
-    </row>
-    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M886" s="2"/>
-    </row>
-    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M887" s="2"/>
-    </row>
-    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M888" s="2"/>
-    </row>
-    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M889" s="2"/>
-    </row>
-    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M890" s="2"/>
-    </row>
-    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M891" s="2"/>
-    </row>
-    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M892" s="2"/>
-    </row>
-    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M893" s="2"/>
-    </row>
-    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M894" s="2"/>
-    </row>
-    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M895" s="2"/>
-    </row>
-    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M896" s="2"/>
-    </row>
-    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M897" s="2"/>
-    </row>
-    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M898" s="2"/>
-    </row>
-    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M899" s="2"/>
-    </row>
-    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M900" s="2"/>
-    </row>
-    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M901" s="2"/>
-    </row>
-    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M902" s="2"/>
-    </row>
-    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M903" s="2"/>
-    </row>
-    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M904" s="2"/>
-    </row>
-    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M905" s="2"/>
-    </row>
-    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M906" s="2"/>
-    </row>
-    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M907" s="2"/>
-    </row>
-    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M908" s="2"/>
-    </row>
-    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M909" s="2"/>
-    </row>
-    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M910" s="2"/>
-    </row>
-    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M911" s="2"/>
-    </row>
-    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M912" s="2"/>
-    </row>
-    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M913" s="2"/>
-    </row>
-    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M914" s="2"/>
-    </row>
-    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M915" s="2"/>
-    </row>
-    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M916" s="2"/>
-    </row>
-    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M917" s="2"/>
-    </row>
-    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M918" s="2"/>
-    </row>
-    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M919" s="2"/>
-    </row>
-    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M920" s="2"/>
-    </row>
-    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M921" s="2"/>
-    </row>
-    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M922" s="2"/>
-    </row>
-    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M923" s="2"/>
-    </row>
-    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M924" s="2"/>
-    </row>
-    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M925" s="2"/>
-    </row>
-    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M926" s="2"/>
-    </row>
-    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M927" s="2"/>
-    </row>
-    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M928" s="2"/>
-    </row>
-    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M929" s="2"/>
-    </row>
-    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M930" s="2"/>
-    </row>
-    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M931" s="2"/>
-    </row>
-    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M932" s="2"/>
-    </row>
-    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M933" s="2"/>
-    </row>
-    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M934" s="2"/>
-    </row>
-    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M935" s="2"/>
-    </row>
-    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M936" s="2"/>
-    </row>
-    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M937" s="2"/>
-    </row>
-    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M938" s="2"/>
-    </row>
-    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M939" s="2"/>
-    </row>
-    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M940" s="2"/>
-    </row>
-    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M941" s="2"/>
-    </row>
-    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M942" s="2"/>
-    </row>
-    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M943" s="2"/>
-    </row>
-    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M944" s="2"/>
-    </row>
-    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M945" s="2"/>
-    </row>
-    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M946" s="2"/>
-    </row>
-    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M947" s="2"/>
-    </row>
-    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M948" s="2"/>
-    </row>
-    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M949" s="2"/>
-    </row>
-    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M950" s="2"/>
-    </row>
-    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M951" s="2"/>
-    </row>
-    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M952" s="2"/>
-    </row>
-    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M953" s="2"/>
-    </row>
-    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M954" s="2"/>
-    </row>
-    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M955" s="2"/>
-    </row>
-    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M956" s="2"/>
-    </row>
-    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M957" s="2"/>
-    </row>
-    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M958" s="2"/>
-    </row>
-    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M959" s="2"/>
-    </row>
-    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M960" s="2"/>
-    </row>
-    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M961" s="2"/>
-    </row>
-    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M962" s="2"/>
-    </row>
-    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M963" s="2"/>
-    </row>
-    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M964" s="2"/>
-    </row>
-    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M965" s="2"/>
-    </row>
-    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M966" s="2"/>
-    </row>
-    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M967" s="2"/>
-    </row>
-    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M968" s="2"/>
-    </row>
-    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M969" s="2"/>
-    </row>
-    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M970" s="2"/>
-    </row>
-    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M971" s="2"/>
-    </row>
-    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M972" s="2"/>
-    </row>
-    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M973" s="2"/>
-    </row>
-    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M974" s="2"/>
-    </row>
-    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M975" s="2"/>
-    </row>
-    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M976" s="2"/>
-    </row>
-    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M977" s="2"/>
-    </row>
-    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M978" s="2"/>
-    </row>
-    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M979" s="2"/>
-    </row>
-    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M980" s="2"/>
-    </row>
-    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M981" s="2"/>
-    </row>
-    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M982" s="2"/>
-    </row>
-    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M983" s="2"/>
-    </row>
-    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M984" s="2"/>
-    </row>
-    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M985" s="2"/>
-    </row>
-    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M986" s="2"/>
-    </row>
-    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M987" s="2"/>
-    </row>
-    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M988" s="2"/>
-    </row>
-    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M989" s="2"/>
-    </row>
-    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M990" s="2"/>
-    </row>
-    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M991" s="2"/>
-    </row>
-    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M992" s="2"/>
-    </row>
-    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M993" s="2"/>
-    </row>
-    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M994" s="2"/>
-    </row>
-    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M995" s="2"/>
-    </row>
-    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M996" s="2"/>
-    </row>
-    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M997" s="2"/>
-    </row>
-    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M998" s="2"/>
-    </row>
-    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M999" s="2"/>
-    </row>
-    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1000" s="2"/>
-    </row>
-    <row r="1001" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1001" s="2"/>
-    </row>
-    <row r="1002" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1002" s="2"/>
-    </row>
-    <row r="1003" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1003" s="2"/>
-    </row>
-    <row r="1004" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1004" s="2"/>
-    </row>
-    <row r="1005" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1005" s="2"/>
-    </row>
-    <row r="1006" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1006" s="2"/>
-    </row>
-    <row r="1007" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1007" s="2"/>
-    </row>
-    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1008" s="2"/>
-    </row>
-    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1009" s="2"/>
-    </row>
-    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1010" s="2"/>
-    </row>
-    <row r="1011" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1011" s="2"/>
-    </row>
-    <row r="1012" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1012" s="2"/>
-    </row>
-    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1013" s="2"/>
-    </row>
-    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1014" s="2"/>
-    </row>
-    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1015" s="2"/>
-    </row>
-    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1016" s="2"/>
-    </row>
-    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1017" s="2"/>
-    </row>
-    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1018" s="2"/>
-    </row>
-    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1019" s="2"/>
-    </row>
-    <row r="1020" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1020" s="2"/>
-    </row>
-    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1021" s="2"/>
-    </row>
-    <row r="1022" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1022" s="2"/>
-    </row>
-    <row r="1023" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1023" s="2"/>
-    </row>
-    <row r="1024" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1024" s="2"/>
-    </row>
-    <row r="1025" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1025" s="2"/>
-    </row>
-    <row r="1026" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1026" s="2"/>
-    </row>
-    <row r="1027" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1027" s="2"/>
-    </row>
-    <row r="1028" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1028" s="2"/>
-    </row>
-    <row r="1029" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1029" s="2"/>
-    </row>
-    <row r="1030" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1030" s="2"/>
-    </row>
-    <row r="1031" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1031" s="2"/>
-    </row>
-    <row r="1032" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1032" s="2"/>
-    </row>
-    <row r="1033" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1033" s="2"/>
-    </row>
-    <row r="1034" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1034" s="2"/>
-    </row>
-    <row r="1035" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1035" s="2"/>
-    </row>
-    <row r="1036" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1036" s="2"/>
-    </row>
-    <row r="1037" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1037" s="2"/>
-    </row>
-    <row r="1038" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1038" s="2"/>
-    </row>
-    <row r="1039" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1039" s="2"/>
-    </row>
-    <row r="1040" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1040" s="2"/>
-    </row>
-    <row r="1041" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1041" s="2"/>
-    </row>
-    <row r="1042" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1042" s="2"/>
-    </row>
-    <row r="1043" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1043" s="2"/>
-    </row>
-    <row r="1044" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1044" s="2"/>
-    </row>
-    <row r="1045" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1045" s="2"/>
-    </row>
-    <row r="1046" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1046" s="2"/>
-    </row>
-    <row r="1047" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1047" s="2"/>
-    </row>
-    <row r="1048" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1048" s="2"/>
-    </row>
-    <row r="1049" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1049" s="2"/>
-    </row>
-    <row r="1050" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1050" s="2"/>
-    </row>
-    <row r="1051" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1051" s="2"/>
-    </row>
-    <row r="1052" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1052" s="2"/>
-    </row>
-    <row r="1053" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1053" s="2"/>
-    </row>
-    <row r="1054" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1054" s="2"/>
-    </row>
-    <row r="1055" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1055" s="2"/>
-    </row>
-    <row r="1056" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1056" s="2"/>
-    </row>
-    <row r="1057" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1057" s="2"/>
-    </row>
-    <row r="1058" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1058" s="2"/>
-    </row>
-    <row r="1059" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1059" s="2"/>
-    </row>
-    <row r="1060" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1060" s="2"/>
-    </row>
-    <row r="1061" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1061" s="2"/>
-    </row>
-    <row r="1062" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1062" s="2"/>
-    </row>
-    <row r="1063" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1063" s="2"/>
-    </row>
-    <row r="1064" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1064" s="2"/>
-    </row>
-    <row r="1065" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1065" s="2"/>
-    </row>
-    <row r="1066" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1066" s="2"/>
-    </row>
-    <row r="1067" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1067" s="2"/>
-    </row>
-    <row r="1068" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1068" s="2"/>
-    </row>
-    <row r="1069" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1069" s="2"/>
-    </row>
-    <row r="1070" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1070" s="2"/>
-    </row>
-    <row r="1071" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1071" s="2"/>
-    </row>
-    <row r="1072" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1072" s="2"/>
-    </row>
-    <row r="1073" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1073" s="2"/>
-    </row>
-    <row r="1074" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1074" s="2"/>
-    </row>
-    <row r="1075" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1075" s="2"/>
-    </row>
-    <row r="1076" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1076" s="2"/>
-    </row>
-    <row r="1077" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1077" s="2"/>
-    </row>
-    <row r="1078" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1078" s="2"/>
-    </row>
-    <row r="1079" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1079" s="2"/>
-    </row>
-    <row r="1080" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1080" s="2"/>
-    </row>
-    <row r="1081" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1081" s="2"/>
-    </row>
-    <row r="1082" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1082" s="2"/>
-    </row>
-    <row r="1083" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1083" s="2"/>
-    </row>
-    <row r="1084" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1084" s="2"/>
-    </row>
-    <row r="1085" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1085" s="2"/>
-    </row>
-    <row r="1086" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1086" s="2"/>
-    </row>
-    <row r="1087" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1087" s="2"/>
-    </row>
-    <row r="1088" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1088" s="2"/>
-    </row>
-    <row r="1089" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1089" s="2"/>
-    </row>
-    <row r="1090" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1090" s="2"/>
-    </row>
-    <row r="1091" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1091" s="2"/>
-    </row>
-    <row r="1092" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1092" s="2"/>
-    </row>
-    <row r="1093" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1093" s="2"/>
-    </row>
-    <row r="1094" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1094" s="2"/>
-    </row>
-    <row r="1095" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1095" s="2"/>
-    </row>
-    <row r="1096" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1096" s="2"/>
-    </row>
-    <row r="1097" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1097" s="2"/>
-    </row>
-    <row r="1098" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1098" s="2"/>
-    </row>
-    <row r="1099" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1099" s="2"/>
-    </row>
-    <row r="1100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1100" s="2"/>
-    </row>
-    <row r="1101" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1101" s="2"/>
-    </row>
-    <row r="1102" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1102" s="2"/>
-    </row>
-    <row r="1103" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1103" s="2"/>
-    </row>
-    <row r="1104" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1104" s="2"/>
-    </row>
-    <row r="1105" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1105" s="2"/>
-    </row>
-    <row r="1106" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1106" s="2"/>
-    </row>
-    <row r="1107" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1107" s="2"/>
-    </row>
-    <row r="1108" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1108" s="2"/>
-    </row>
-    <row r="1109" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1109" s="2"/>
-    </row>
-    <row r="1110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1110" s="2"/>
-    </row>
-    <row r="1111" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1111" s="2"/>
-    </row>
-    <row r="1112" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1112" s="2"/>
-    </row>
-    <row r="1113" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1113" s="2"/>
-    </row>
-    <row r="1114" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1114" s="2"/>
-    </row>
-    <row r="1115" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1115" s="2"/>
-    </row>
-    <row r="1116" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1116" s="2"/>
-    </row>
-    <row r="1117" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1117" s="2"/>
-    </row>
-    <row r="1118" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1118" s="2"/>
-    </row>
-    <row r="1119" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1119" s="2"/>
-    </row>
-    <row r="1120" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1120" s="2"/>
-    </row>
-    <row r="1121" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1121" s="2"/>
-    </row>
-    <row r="1122" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1122" s="2"/>
-    </row>
-    <row r="1123" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1123" s="2"/>
-    </row>
-    <row r="1124" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1124" s="2"/>
-    </row>
-    <row r="1125" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1125" s="2"/>
-    </row>
-    <row r="1126" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1126" s="2"/>
-    </row>
-    <row r="1127" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1127" s="2"/>
-    </row>
-    <row r="1128" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1128" s="2"/>
-    </row>
-    <row r="1129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1129" s="2"/>
-    </row>
-    <row r="1130" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1130" s="2"/>
-    </row>
-    <row r="1131" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1131" s="2"/>
-    </row>
-    <row r="1132" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1132" s="2"/>
-    </row>
-    <row r="1133" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1133" s="2"/>
-    </row>
-    <row r="1134" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1134" s="2"/>
-    </row>
-    <row r="1135" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1135" s="2"/>
-    </row>
-    <row r="1136" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1136" s="2"/>
-    </row>
-    <row r="1137" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1137" s="2"/>
-    </row>
-    <row r="1138" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1138" s="2"/>
-    </row>
-    <row r="1139" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1139" s="2"/>
-    </row>
-    <row r="1140" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1140" s="2"/>
-    </row>
-    <row r="1141" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1141" s="2"/>
-    </row>
-    <row r="1142" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1142" s="2"/>
-    </row>
-    <row r="1143" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1143" s="2"/>
-    </row>
-    <row r="1144" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1144" s="2"/>
-    </row>
-    <row r="1145" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1145" s="2"/>
-    </row>
-    <row r="1146" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1146" s="2"/>
-    </row>
-    <row r="1147" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1147" s="2"/>
-    </row>
-    <row r="1148" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1148" s="2"/>
-    </row>
-    <row r="1149" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1149" s="2"/>
-    </row>
-    <row r="1150" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1150" s="2"/>
-    </row>
-    <row r="1151" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1151" s="2"/>
-    </row>
-    <row r="1152" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1152" s="2"/>
-    </row>
-    <row r="1153" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1153" s="2"/>
-    </row>
-    <row r="1154" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1154" s="2"/>
-    </row>
-    <row r="1155" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1155" s="2"/>
-    </row>
-    <row r="1156" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1156" s="2"/>
-    </row>
-    <row r="1157" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1157" s="2"/>
-    </row>
-    <row r="1158" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1158" s="2"/>
-    </row>
-    <row r="1159" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1159" s="2"/>
-    </row>
-    <row r="1160" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1160" s="2"/>
-    </row>
-    <row r="1161" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1161" s="2"/>
-    </row>
-    <row r="1162" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1162" s="2"/>
-    </row>
-    <row r="1163" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1163" s="2"/>
-    </row>
-    <row r="1164" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1164" s="2"/>
-    </row>
-    <row r="1165" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1165" s="2"/>
-    </row>
-    <row r="1166" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1166" s="2"/>
-    </row>
-    <row r="1167" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1167" s="2"/>
-    </row>
-    <row r="1168" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1168" s="2"/>
-    </row>
-    <row r="1169" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1169" s="2"/>
-    </row>
-    <row r="1170" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1170" s="2"/>
-    </row>
-    <row r="1171" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1171" s="2"/>
-    </row>
-    <row r="1172" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1172" s="2"/>
-    </row>
-    <row r="1173" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1173" s="2"/>
-    </row>
-    <row r="1174" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1174" s="2"/>
-    </row>
-    <row r="1175" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1175" s="2"/>
-    </row>
-    <row r="1176" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1176" s="2"/>
-    </row>
-    <row r="1177" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1177" s="2"/>
-    </row>
-    <row r="1178" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1178" s="2"/>
-    </row>
-    <row r="1179" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1179" s="2"/>
-    </row>
-    <row r="1180" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1180" s="2"/>
-    </row>
-    <row r="1181" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1181" s="2"/>
-    </row>
-    <row r="1182" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1182" s="2"/>
-    </row>
-    <row r="1183" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1183" s="2"/>
-    </row>
-    <row r="1184" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1184" s="2"/>
-    </row>
-    <row r="1185" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1185" s="2"/>
-    </row>
-    <row r="1186" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1186" s="2"/>
-    </row>
-    <row r="1187" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1187" s="2"/>
-    </row>
-    <row r="1188" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1188" s="2"/>
-    </row>
-    <row r="1189" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1189" s="2"/>
-    </row>
-    <row r="1190" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1190" s="2"/>
-    </row>
-    <row r="1191" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1191" s="2"/>
-    </row>
-    <row r="1192" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1192" s="2"/>
-    </row>
-    <row r="1193" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1193" s="2"/>
-    </row>
-    <row r="1194" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1194" s="2"/>
-    </row>
-    <row r="1195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1195" s="2"/>
-    </row>
-    <row r="1196" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1196" s="2"/>
-    </row>
-    <row r="1197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1197" s="2"/>
-    </row>
-    <row r="1198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1198" s="2"/>
-    </row>
-    <row r="1199" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1199" s="2"/>
-    </row>
-    <row r="1200" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1200" s="2"/>
-    </row>
-    <row r="1201" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1201" s="2"/>
-    </row>
-    <row r="1202" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1202" s="2"/>
-    </row>
-    <row r="1203" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1203" s="2"/>
-    </row>
-    <row r="1204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1204" s="2"/>
-    </row>
-    <row r="1205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1205" s="2"/>
-    </row>
-    <row r="1206" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1206" s="2"/>
-    </row>
-    <row r="1207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1207" s="2"/>
-    </row>
-    <row r="1208" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1208" s="2"/>
-    </row>
-    <row r="1209" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1209" s="2"/>
-    </row>
-    <row r="1210" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1210" s="2"/>
-    </row>
-    <row r="1211" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1211" s="2"/>
-    </row>
-    <row r="1212" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1212" s="2"/>
-    </row>
-    <row r="1213" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1213" s="2"/>
-    </row>
-    <row r="1214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1214" s="2"/>
-    </row>
-    <row r="1215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1215" s="2"/>
-    </row>
-    <row r="1216" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1216" s="2"/>
-    </row>
-    <row r="1217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1217" s="2"/>
-    </row>
-    <row r="1218" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1218" s="2"/>
-    </row>
-    <row r="1219" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1219" s="2"/>
-    </row>
-    <row r="1220" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1220" s="2"/>
-    </row>
-    <row r="1221" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1221" s="2"/>
-    </row>
-    <row r="1222" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1222" s="2"/>
-    </row>
-    <row r="1223" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1223" s="2"/>
-    </row>
-    <row r="1224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1224" s="2"/>
-    </row>
-    <row r="1225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1225" s="2"/>
-    </row>
-    <row r="1226" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1226" s="2"/>
-    </row>
-    <row r="1227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1227" s="2"/>
-    </row>
-    <row r="1228" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1228" s="2"/>
-    </row>
-    <row r="1229" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1229" s="2"/>
-    </row>
-    <row r="1230" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1230" s="2"/>
-    </row>
-    <row r="1231" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1231" s="2"/>
-    </row>
-    <row r="1232" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1232" s="2"/>
-    </row>
-    <row r="1233" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1233" s="2"/>
-    </row>
-    <row r="1234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1234" s="2"/>
-    </row>
-    <row r="1235" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1235" s="2"/>
-    </row>
-    <row r="1236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1236" s="2"/>
-    </row>
-    <row r="1237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M1237" s="2"/>
+      <c r="N239" s="4">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="O239" s="5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P239" s="6">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="N240" s="2"/>
+    </row>
+    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N241" s="2"/>
+    </row>
+    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N242" s="2"/>
+    </row>
+    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N243" s="2"/>
+    </row>
+    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N244" s="2"/>
+    </row>
+    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N245" s="2"/>
+    </row>
+    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N246" s="2"/>
+    </row>
+    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N247" s="2"/>
+    </row>
+    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N248" s="2"/>
+    </row>
+    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N249" s="2"/>
+    </row>
+    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N250" s="2"/>
+    </row>
+    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N251" s="2"/>
+    </row>
+    <row r="252" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N252" s="2"/>
+    </row>
+    <row r="253" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N253" s="2"/>
+    </row>
+    <row r="254" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N254" s="2"/>
+    </row>
+    <row r="255" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N255" s="2"/>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N256" s="2"/>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N257" s="2"/>
+    </row>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N258" s="2"/>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N259" s="2"/>
+    </row>
+    <row r="260" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N260" s="2"/>
+    </row>
+    <row r="261" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N261" s="2"/>
+    </row>
+    <row r="262" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N262" s="2"/>
+    </row>
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N263" s="2"/>
+    </row>
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N264" s="2"/>
+    </row>
+    <row r="265" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N265" s="2"/>
+    </row>
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N266" s="2"/>
+    </row>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N267" s="2"/>
+    </row>
+    <row r="268" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N268" s="2"/>
+    </row>
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N269" s="2"/>
+    </row>
+    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N270" s="2"/>
+    </row>
+    <row r="271" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N271" s="2"/>
+    </row>
+    <row r="272" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N272" s="2"/>
+    </row>
+    <row r="273" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N273" s="2"/>
+    </row>
+    <row r="274" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N274" s="2"/>
+    </row>
+    <row r="275" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N275" s="2"/>
+    </row>
+    <row r="276" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N276" s="2"/>
+    </row>
+    <row r="277" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N277" s="2"/>
+    </row>
+    <row r="278" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N278" s="2"/>
+    </row>
+    <row r="279" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N279" s="2"/>
+    </row>
+    <row r="280" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N280" s="2"/>
+    </row>
+    <row r="281" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N281" s="2"/>
+    </row>
+    <row r="282" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N282" s="2"/>
+    </row>
+    <row r="283" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N283" s="2"/>
+    </row>
+    <row r="284" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N284" s="2"/>
+    </row>
+    <row r="285" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N285" s="2"/>
+    </row>
+    <row r="286" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N286" s="2"/>
+    </row>
+    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N287" s="2"/>
+    </row>
+    <row r="288" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N288" s="2"/>
+    </row>
+    <row r="289" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N289" s="2"/>
+    </row>
+    <row r="290" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N290" s="2"/>
+    </row>
+    <row r="291" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N291" s="2"/>
+    </row>
+    <row r="292" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N292" s="2"/>
+    </row>
+    <row r="293" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N293" s="2"/>
+    </row>
+    <row r="294" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N294" s="2"/>
+    </row>
+    <row r="295" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N295" s="2"/>
+    </row>
+    <row r="296" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N296" s="2"/>
+    </row>
+    <row r="297" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N297" s="2"/>
+    </row>
+    <row r="298" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N298" s="2"/>
+    </row>
+    <row r="299" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N299" s="2"/>
+    </row>
+    <row r="300" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N300" s="2"/>
+    </row>
+    <row r="301" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N301" s="2"/>
+    </row>
+    <row r="302" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N302" s="2"/>
+    </row>
+    <row r="303" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N303" s="2"/>
+    </row>
+    <row r="304" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N304" s="2"/>
+    </row>
+    <row r="305" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N305" s="2"/>
+    </row>
+    <row r="306" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N306" s="2"/>
+    </row>
+    <row r="307" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N307" s="2"/>
+    </row>
+    <row r="308" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N308" s="2"/>
+    </row>
+    <row r="309" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N309" s="2"/>
+    </row>
+    <row r="310" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N310" s="2"/>
+    </row>
+    <row r="311" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N311" s="2"/>
+    </row>
+    <row r="312" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N312" s="2"/>
+    </row>
+    <row r="313" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N313" s="2"/>
+    </row>
+    <row r="314" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N314" s="2"/>
+    </row>
+    <row r="315" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N315" s="2"/>
+    </row>
+    <row r="316" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N316" s="2"/>
+    </row>
+    <row r="317" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N317" s="2"/>
+    </row>
+    <row r="318" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N318" s="2"/>
+    </row>
+    <row r="319" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N319" s="2"/>
+    </row>
+    <row r="320" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N320" s="2"/>
+    </row>
+    <row r="321" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N321" s="2"/>
+    </row>
+    <row r="322" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N322" s="2"/>
+    </row>
+    <row r="323" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N323" s="2"/>
+    </row>
+    <row r="324" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N324" s="2"/>
+    </row>
+    <row r="325" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N325" s="2"/>
+    </row>
+    <row r="326" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N326" s="2"/>
+    </row>
+    <row r="327" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N327" s="2"/>
+    </row>
+    <row r="328" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N328" s="2"/>
+    </row>
+    <row r="329" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N329" s="2"/>
+    </row>
+    <row r="330" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N330" s="2"/>
+    </row>
+    <row r="331" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N331" s="2"/>
+    </row>
+    <row r="332" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N332" s="2"/>
+    </row>
+    <row r="333" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N333" s="2"/>
+    </row>
+    <row r="334" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N334" s="2"/>
+    </row>
+    <row r="335" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N335" s="2"/>
+    </row>
+    <row r="336" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N336" s="2"/>
+    </row>
+    <row r="337" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N337" s="2"/>
+    </row>
+    <row r="338" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N338" s="2"/>
+    </row>
+    <row r="339" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N339" s="2"/>
+    </row>
+    <row r="340" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N340" s="2"/>
+    </row>
+    <row r="341" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N341" s="2"/>
+    </row>
+    <row r="342" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N342" s="2"/>
+    </row>
+    <row r="343" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N343" s="2"/>
+    </row>
+    <row r="344" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N344" s="2"/>
+    </row>
+    <row r="345" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N345" s="2"/>
+    </row>
+    <row r="346" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N346" s="2"/>
+    </row>
+    <row r="347" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N347" s="2"/>
+    </row>
+    <row r="348" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N348" s="2"/>
+    </row>
+    <row r="349" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N349" s="2"/>
+    </row>
+    <row r="350" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N350" s="2"/>
+    </row>
+    <row r="351" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N351" s="2"/>
+    </row>
+    <row r="352" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N352" s="2"/>
+    </row>
+    <row r="353" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N353" s="2"/>
+    </row>
+    <row r="354" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N354" s="2"/>
+    </row>
+    <row r="355" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N355" s="2"/>
+    </row>
+    <row r="356" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N356" s="2"/>
+    </row>
+    <row r="357" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N357" s="2"/>
+    </row>
+    <row r="358" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N358" s="2"/>
+    </row>
+    <row r="359" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N359" s="2"/>
+    </row>
+    <row r="360" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N360" s="2"/>
+    </row>
+    <row r="361" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N361" s="2"/>
+    </row>
+    <row r="362" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N362" s="2"/>
+    </row>
+    <row r="363" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N363" s="2"/>
+    </row>
+    <row r="364" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N364" s="2"/>
+    </row>
+    <row r="365" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N365" s="2"/>
+    </row>
+    <row r="366" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N366" s="2"/>
+    </row>
+    <row r="367" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N367" s="2"/>
+    </row>
+    <row r="368" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N368" s="2"/>
+    </row>
+    <row r="369" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N369" s="2"/>
+    </row>
+    <row r="370" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N370" s="2"/>
+    </row>
+    <row r="371" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N371" s="2"/>
+    </row>
+    <row r="372" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N372" s="2"/>
+    </row>
+    <row r="373" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N373" s="2"/>
+    </row>
+    <row r="374" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N374" s="2"/>
+    </row>
+    <row r="375" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N375" s="2"/>
+    </row>
+    <row r="376" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N376" s="2"/>
+    </row>
+    <row r="377" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N377" s="2"/>
+    </row>
+    <row r="378" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N378" s="2"/>
+    </row>
+    <row r="379" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N379" s="2"/>
+    </row>
+    <row r="380" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N380" s="2"/>
+    </row>
+    <row r="381" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N381" s="2"/>
+    </row>
+    <row r="382" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N382" s="2"/>
+    </row>
+    <row r="383" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N383" s="2"/>
+    </row>
+    <row r="384" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N384" s="2"/>
+    </row>
+    <row r="385" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N385" s="2"/>
+    </row>
+    <row r="386" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N386" s="2"/>
+    </row>
+    <row r="387" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N387" s="2"/>
+    </row>
+    <row r="388" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N388" s="2"/>
+    </row>
+    <row r="389" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N389" s="2"/>
+    </row>
+    <row r="390" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N390" s="2"/>
+    </row>
+    <row r="391" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N391" s="2"/>
+    </row>
+    <row r="392" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N392" s="2"/>
+    </row>
+    <row r="393" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N393" s="2"/>
+    </row>
+    <row r="394" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N394" s="2"/>
+    </row>
+    <row r="395" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N395" s="2"/>
+    </row>
+    <row r="396" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N396" s="2"/>
+    </row>
+    <row r="397" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N397" s="2"/>
+    </row>
+    <row r="398" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N398" s="2"/>
+    </row>
+    <row r="399" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N399" s="2"/>
+    </row>
+    <row r="400" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N400" s="2"/>
+    </row>
+    <row r="401" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N401" s="2"/>
+    </row>
+    <row r="402" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N402" s="2"/>
+    </row>
+    <row r="403" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N403" s="2"/>
+    </row>
+    <row r="404" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N404" s="2"/>
+    </row>
+    <row r="405" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N405" s="2"/>
+    </row>
+    <row r="406" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N406" s="2"/>
+    </row>
+    <row r="407" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N407" s="2"/>
+    </row>
+    <row r="408" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N408" s="2"/>
+    </row>
+    <row r="409" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N409" s="2"/>
+    </row>
+    <row r="410" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N410" s="2"/>
+    </row>
+    <row r="411" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N411" s="2"/>
+    </row>
+    <row r="412" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N412" s="2"/>
+    </row>
+    <row r="413" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N413" s="2"/>
+    </row>
+    <row r="414" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N414" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
